--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44243</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
         <v>2700</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44243</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
         <v>2400</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44285</v>
+        <v>44243</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44285</v>
+        <v>44204</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44246</v>
+        <v>44204</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M6" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44246</v>
+        <v>44204</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>430</v>
+        <v>1300</v>
       </c>
       <c r="K7" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44246</v>
+        <v>44204</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K8" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M8" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44246</v>
+        <v>44214</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,11 +1001,11 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
         <v>3000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44264</v>
+        <v>44214</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K10" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L10" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>2800</v>
+        <v>2388</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2800</v>
+        <v>2388</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44264</v>
+        <v>44214</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L11" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M11" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>340</v>
+        <v>1300</v>
       </c>
       <c r="K13" t="n">
         <v>2500</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K14" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L14" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>2200</v>
+        <v>1889</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2200</v>
+        <v>1889</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44267</v>
+        <v>44208</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L15" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M15" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
         <v>2500</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1656,13 +1656,13 @@
         <v>340</v>
       </c>
       <c r="K18" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L18" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K19" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="L19" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="M19" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44267</v>
+        <v>44280</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1800,13 +1800,13 @@
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="L20" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="M20" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44165</v>
+        <v>44280</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,33 +1865,33 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K21" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="M21" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44187</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K22" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L22" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M22" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44187</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="K23" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L23" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M23" t="n">
-        <v>2925</v>
+        <v>2400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2925</v>
+        <v>2400</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44187</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K24" t="n">
         <v>2000</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44266</v>
+        <v>44285</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L25" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M25" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44286</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K26" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L26" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M26" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44286</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L27" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M27" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44286</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2376,13 +2376,13 @@
         <v>340</v>
       </c>
       <c r="K28" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L28" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M28" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44286</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K29" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L29" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M29" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44210</v>
+        <v>44286</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K30" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L30" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M30" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44210</v>
+        <v>44286</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44210</v>
+        <v>44201</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="K32" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L32" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M32" t="n">
-        <v>1889</v>
+        <v>3500</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1889</v>
+        <v>3500</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44210</v>
+        <v>44201</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K33" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L33" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M33" t="n">
-        <v>3500</v>
+        <v>2931</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3500</v>
+        <v>2931</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44259</v>
+        <v>44201</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L34" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M34" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44259</v>
+        <v>44201</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L35" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M35" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44259</v>
+        <v>44266</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K36" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L36" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M36" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44249</v>
+        <v>44266</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J37" t="n">
         <v>250</v>
       </c>
       <c r="K37" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L37" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M37" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>340</v>
       </c>
       <c r="K38" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L38" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M38" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K39" t="n">
         <v>2500</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>160</v>
       </c>
       <c r="K40" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L40" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M40" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K41" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L41" t="n">
         <v>600</v>
       </c>
       <c r="M41" t="n">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44166</v>
+        <v>44202</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3377,33 +3377,33 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K42" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L42" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M42" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44279</v>
+        <v>44202</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K43" t="n">
         <v>2500</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44279</v>
+        <v>44202</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K44" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L44" t="n">
         <v>2000</v>
       </c>
       <c r="M44" t="n">
-        <v>2000</v>
+        <v>1920</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2000</v>
+        <v>1920</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44279</v>
+        <v>44202</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K45" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L45" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M45" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44239</v>
+        <v>44165</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3665,33 +3665,33 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K46" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="L46" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="M46" t="n">
-        <v>2650</v>
+        <v>600</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2650</v>
+        <v>600</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44239</v>
+        <v>44216</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K47" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L47" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M47" t="n">
-        <v>2300</v>
+        <v>2688</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2300</v>
+        <v>2688</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44239</v>
+        <v>44216</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K48" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L48" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M48" t="n">
-        <v>3250</v>
+        <v>2091</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3250</v>
+        <v>2091</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="K49" t="n">
         <v>3500</v>
       </c>
       <c r="L49" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M49" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44174</v>
+        <v>44260</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K50" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L50" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M50" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44271</v>
+        <v>44260</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K51" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L51" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M51" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44271</v>
+        <v>44260</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K52" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L52" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M52" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44271</v>
+        <v>44260</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L53" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M53" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K54" t="n">
         <v>2500</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K55" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L55" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M55" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K56" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="L56" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="M56" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K57" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L57" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M57" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K58" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L58" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M58" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4601,11 +4601,11 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K59" t="n">
         <v>2500</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K60" t="n">
         <v>2500</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K61" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L61" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M61" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K62" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="L62" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="M62" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>160</v>
       </c>
       <c r="K63" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L63" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M63" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J64" t="n">
         <v>160</v>
       </c>
       <c r="K64" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L64" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M64" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44299</v>
+        <v>44181</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J65" t="n">
         <v>250</v>
       </c>
       <c r="K65" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L65" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M65" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44175</v>
+        <v>44181</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K66" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L66" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M66" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44175</v>
+        <v>44181</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K67" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L67" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M67" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K68" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L68" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M68" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1100</v>
+        <v>430</v>
       </c>
       <c r="K69" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L69" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M69" t="n">
-        <v>2500</v>
+        <v>2250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2500</v>
+        <v>2250</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="K70" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L70" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M70" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44204</v>
+        <v>44246</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K71" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L71" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M71" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44200</v>
+        <v>44239</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>520</v>
+        <v>210</v>
       </c>
       <c r="K72" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L72" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M72" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44200</v>
+        <v>44239</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>610</v>
+        <v>340</v>
       </c>
       <c r="K73" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L73" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="M73" t="n">
-        <v>3650</v>
+        <v>2300</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3650</v>
+        <v>2300</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44200</v>
+        <v>44239</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K74" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L74" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M74" t="n">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44216</v>
+        <v>44172</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K75" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L75" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M75" t="n">
-        <v>2688</v>
+        <v>4000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2688</v>
+        <v>4000</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44216</v>
+        <v>44172</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K76" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L76" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="M76" t="n">
-        <v>2091</v>
+        <v>3250</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2091</v>
+        <v>3250</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44216</v>
+        <v>44258</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K77" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L77" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M77" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K78" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L78" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M78" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44258</v>
+        <v>44174</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K79" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L79" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M79" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44243</v>
+        <v>44174</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>340</v>
       </c>
       <c r="K80" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L80" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M80" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44243</v>
+        <v>44284</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="K81" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L81" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M81" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44243</v>
+        <v>44284</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
         <v>160</v>
       </c>
       <c r="K82" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L82" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M82" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44176</v>
+        <v>44284</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="K83" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L83" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M83" t="n">
-        <v>3750</v>
+        <v>1600</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3750</v>
+        <v>1600</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44176</v>
+        <v>44159</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,33 +6401,33 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K84" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L84" t="n">
-        <v>3200</v>
+        <v>900</v>
       </c>
       <c r="M84" t="n">
-        <v>3100</v>
+        <v>845</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3100</v>
+        <v>845</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44237</v>
+        <v>44245</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6480,13 +6480,13 @@
         <v>340</v>
       </c>
       <c r="K85" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L85" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M85" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44273</v>
+        <v>44245</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K86" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L86" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M86" t="n">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2800</v>
+        <v>2250</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44273</v>
+        <v>44245</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K87" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L87" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M87" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44273</v>
+        <v>44245</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K88" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L88" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M88" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44273</v>
+        <v>44187</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K89" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L89" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M89" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44273</v>
+        <v>44187</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="K90" t="n">
-        <v>210</v>
+        <v>2800</v>
       </c>
       <c r="L90" t="n">
-        <v>210</v>
+        <v>3000</v>
       </c>
       <c r="M90" t="n">
-        <v>210</v>
+        <v>2925</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>210</v>
+        <v>2925</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44273</v>
+        <v>44187</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K91" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L91" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M91" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44257</v>
+        <v>44278</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K92" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L92" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M92" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44257</v>
+        <v>44278</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
         <v>250</v>
       </c>
       <c r="K93" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="L93" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="M93" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44257</v>
+        <v>44278</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K94" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L94" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M94" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="K95" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="L95" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="M95" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K96" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L96" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M96" t="n">
-        <v>3250</v>
+        <v>1600</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3250</v>
+        <v>1600</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K97" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L97" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M97" t="n">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44194</v>
+        <v>44250</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K98" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L98" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="M98" t="n">
-        <v>4500</v>
+        <v>2650</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4500</v>
+        <v>2650</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44172</v>
+        <v>44250</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K99" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L99" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M99" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44172</v>
+        <v>44250</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -7563,10 +7563,10 @@
         <v>3000</v>
       </c>
       <c r="L100" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M100" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44214</v>
+        <v>44299</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K101" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L101" t="n">
         <v>3000</v>
       </c>
       <c r="M101" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="K102" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="L102" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M102" t="n">
-        <v>2388</v>
+        <v>4000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2388</v>
+        <v>4000</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44214</v>
+        <v>44200</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K103" t="n">
         <v>3500</v>
       </c>
       <c r="L103" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="M103" t="n">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3500</v>
+        <v>3650</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44238</v>
+        <v>44200</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K104" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L104" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M104" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K105" t="n">
         <v>2800</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
         <v>250</v>
       </c>
       <c r="K106" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L106" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M106" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44274</v>
+        <v>44265</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K107" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L107" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M107" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K108" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L108" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M108" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K109" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L109" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M109" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K110" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L110" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M110" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K111" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L111" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M111" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44260</v>
+        <v>44267</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44260</v>
+        <v>44267</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44260</v>
+        <v>44267</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44260</v>
+        <v>44267</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44196</v>
+        <v>44267</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="L116" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M116" t="n">
-        <v>3350</v>
+        <v>2300</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3350</v>
+        <v>2300</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44196</v>
+        <v>44267</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L117" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M117" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44196</v>
+        <v>44292</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K118" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L118" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M118" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44278</v>
+        <v>44292</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
         <v>250</v>
       </c>
       <c r="K119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44278</v>
+        <v>44292</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K120" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L120" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M120" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K121" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L121" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M121" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K122" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L122" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M122" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J123" t="n">
         <v>160</v>
       </c>
       <c r="K123" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L123" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M123" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44278</v>
+        <v>44224</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K124" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L124" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M124" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44251</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K125" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L125" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M125" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44251</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K126" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L126" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M126" t="n">
-        <v>3000</v>
+        <v>1889</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3000</v>
+        <v>1889</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44250</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K127" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L127" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M127" t="n">
-        <v>2650</v>
+        <v>3500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2650</v>
+        <v>3500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44250</v>
+        <v>44217</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K128" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L128" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M128" t="n">
-        <v>2200</v>
+        <v>2820</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2200</v>
+        <v>2820</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44250</v>
+        <v>44217</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>340</v>
+        <v>1300</v>
       </c>
       <c r="K129" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L129" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M129" t="n">
-        <v>3000</v>
+        <v>2338</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3000</v>
+        <v>2338</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44292</v>
+        <v>44217</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K130" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L130" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M130" t="n">
-        <v>3000</v>
+        <v>1612</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3000</v>
+        <v>1612</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44292</v>
+        <v>44249</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>250</v>
       </c>
       <c r="K131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K132" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L132" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M132" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44294</v>
+        <v>44168</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,11 +9929,11 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K133" t="n">
         <v>3000</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44294</v>
+        <v>44168</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K134" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L134" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M134" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44294</v>
+        <v>44272</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K136" t="n">
         <v>2500</v>
       </c>
       <c r="L136" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M136" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K137" t="n">
         <v>2100</v>
       </c>
       <c r="L137" t="n">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="M137" t="n">
-        <v>2250</v>
+        <v>2100</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2250</v>
+        <v>2100</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44245</v>
+        <v>44196</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K138" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="L138" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M138" t="n">
-        <v>1800</v>
+        <v>3350</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1800</v>
+        <v>3350</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44245</v>
+        <v>44196</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K139" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L139" t="n">
         <v>3000</v>
       </c>
       <c r="M139" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44202</v>
+        <v>44196</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="K140" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L140" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M140" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44202</v>
+        <v>44274</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="K141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44202</v>
+        <v>44274</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K142" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L142" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M142" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44202</v>
+        <v>44274</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K143" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L143" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="M143" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44181</v>
+        <v>44194</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K144" t="n">
         <v>4000</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44181</v>
+        <v>44194</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K145" t="n">
         <v>3000</v>
       </c>
       <c r="L145" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M145" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44181</v>
+        <v>44194</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L146" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M146" t="n">
-        <v>2000</v>
+        <v>2650</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2000</v>
+        <v>2650</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44161</v>
+        <v>44194</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="K147" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="L147" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="M147" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11232,13 +11232,13 @@
         <v>340</v>
       </c>
       <c r="K151" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L151" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M151" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44159</v>
+        <v>44264</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,33 +11297,33 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="K152" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="L152" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="M152" t="n">
-        <v>845</v>
+        <v>2200</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>845</v>
+        <v>2200</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44201</v>
+        <v>44210</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K153" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L153" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M153" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44201</v>
+        <v>44210</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="K154" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L154" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M154" t="n">
-        <v>2931</v>
+        <v>2500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2931</v>
+        <v>2500</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44201</v>
+        <v>44210</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K155" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L155" t="n">
         <v>2000</v>
       </c>
       <c r="M155" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44201</v>
+        <v>44210</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L156" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M156" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44281</v>
+        <v>44244</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K161" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L161" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M161" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44281</v>
+        <v>44244</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K162" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L162" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M162" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44281</v>
+        <v>44244</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K163" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L163" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M163" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44272</v>
+        <v>44244</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L164" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M164" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44272</v>
+        <v>44176</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K165" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L165" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M165" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44272</v>
+        <v>44176</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12312,13 +12312,13 @@
         <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L166" t="n">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="M166" t="n">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2100</v>
+        <v>3100</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44286</v>
+        <v>44237</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K167" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L167" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M167" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44286</v>
+        <v>44257</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12456,13 +12456,13 @@
         <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L168" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M168" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44286</v>
+        <v>44257</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L169" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M169" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44286</v>
+        <v>44257</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K170" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L170" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M170" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K171" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L171" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M171" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L172" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M172" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44217</v>
+        <v>44273</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K173" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L173" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M173" t="n">
-        <v>2820</v>
+        <v>2500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2820</v>
+        <v>2500</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44217</v>
+        <v>44273</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="K174" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L174" t="n">
         <v>2500</v>
       </c>
       <c r="M174" t="n">
-        <v>2338</v>
+        <v>2500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2338</v>
+        <v>2500</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44217</v>
+        <v>44273</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="L175" t="n">
-        <v>1800</v>
+        <v>210</v>
       </c>
       <c r="M175" t="n">
-        <v>1612</v>
+        <v>210</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1612</v>
+        <v>210</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44244</v>
+        <v>44273</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K176" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="L176" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="M176" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K177" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L177" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M177" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K178" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L178" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M178" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44244</v>
+        <v>44294</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
         <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L179" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M179" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44223</v>
+        <v>44161</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K180" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L180" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M180" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K181" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L181" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M181" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44223</v>
+        <v>44251</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L182" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M182" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1200</v>
+        <v>520</v>
       </c>
       <c r="K183" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L183" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M183" t="n">
-        <v>2325</v>
+        <v>3750</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2325</v>
+        <v>3750</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44223</v>
+        <v>44175</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L184" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M184" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L185" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M185" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1300</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L187" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M187" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M188" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K189" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="K190" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L190" t="n">
         <v>2500</v>
       </c>
       <c r="M190" t="n">
-        <v>2500</v>
+        <v>2367</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2500</v>
+        <v>2367</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>160</v>
+        <v>1200</v>
       </c>
       <c r="K191" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L191" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M191" t="n">
-        <v>2000</v>
+        <v>2325</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2000</v>
+        <v>2325</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44284</v>
+        <v>44223</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K192" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L192" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M192" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44168</v>
+        <v>44223</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L193" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M193" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,20 +14325,20 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K194" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="L194" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M194" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44168</v>
+        <v>44238</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M195" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44274</v>
+        <v>44452</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,33 +10505,33 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K141" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L141" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M141" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K143" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L143" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M143" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K144" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="L144" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="M144" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K145" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L145" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M145" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K146" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L146" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M146" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K147" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L147" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="M147" t="n">
-        <v>4500</v>
+        <v>2650</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4500</v>
+        <v>2650</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44264</v>
+        <v>44194</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K148" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L148" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="M148" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K149" t="n">
         <v>2800</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
         <v>250</v>
       </c>
       <c r="K150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K151" t="n">
         <v>2500</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44210</v>
+        <v>44264</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K153" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L153" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M153" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K154" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L154" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M154" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K155" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L155" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M155" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K156" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L156" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M156" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L157" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M157" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>250</v>
       </c>
       <c r="K160" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L160" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M160" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L161" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M161" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K162" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L162" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M162" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K163" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L163" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M163" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K164" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L164" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M164" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K165" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L165" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M165" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K166" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L166" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M166" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
         <v>3000</v>
       </c>
       <c r="L167" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M167" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44257</v>
+        <v>44237</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L169" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M169" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K170" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L170" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M170" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K171" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L171" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M171" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K172" t="n">
         <v>2800</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K175" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L175" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M175" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L176" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M176" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
         <v>250</v>
       </c>
       <c r="K177" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L177" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M177" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K178" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L178" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M178" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K179" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L179" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M179" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44161</v>
+        <v>44294</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L180" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M180" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="K181" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="L181" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M181" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K182" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L182" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M182" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44175</v>
+        <v>44251</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M183" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K184" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L184" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M184" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
         <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L186" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M186" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K187" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L187" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M187" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L188" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M188" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K189" t="n">
         <v>3000</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K190" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K191" t="n">
         <v>2200</v>
@@ -14118,7 +14118,7 @@
         <v>2500</v>
       </c>
       <c r="M191" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K192" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L192" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M192" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K193" t="n">
         <v>3500</v>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44167</v>
+        <v>44223</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,33 +14321,33 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="L194" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="M194" t="n">
-        <v>555</v>
+        <v>3500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>555</v>
+        <v>3500</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,58 +14373,130 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E195" t="n">
+        <v>13</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>550</v>
+      </c>
+      <c r="K195" t="n">
+        <v>500</v>
+      </c>
+      <c r="L195" t="n">
+        <v>600</v>
+      </c>
+      <c r="M195" t="n">
+        <v>555</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Provincia de Cachapoal</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>555</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>1</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>9</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
         <v>44238</v>
       </c>
-      <c r="E195" t="n">
-        <v>13</v>
-      </c>
-      <c r="F195" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
+      <c r="E196" t="n">
+        <v>13</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
         <is>
           <t>Super</t>
         </is>
       </c>
-      <c r="J195" t="n">
+      <c r="J196" t="n">
         <v>160</v>
       </c>
-      <c r="K195" t="n">
+      <c r="K196" t="n">
         <v>3000</v>
       </c>
-      <c r="L195" t="n">
+      <c r="L196" t="n">
         <v>3000</v>
       </c>
-      <c r="M195" t="n">
+      <c r="M196" t="n">
         <v>3000</v>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P195" t="n">
+      <c r="P196" t="n">
         <v>3000</v>
       </c>
-      <c r="Q195" t="n">
-        <v>1</v>
-      </c>
-      <c r="R195" t="inlineStr">
+      <c r="Q196" t="n">
+        <v>1</v>
+      </c>
+      <c r="R196" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44243</v>
+        <v>44181</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L2" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M2" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44243</v>
+        <v>44181</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44243</v>
+        <v>44181</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44214</v>
+        <v>44278</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L9" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44214</v>
+        <v>44278</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L10" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M10" t="n">
-        <v>2388</v>
+        <v>2400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2388</v>
+        <v>2400</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44214</v>
+        <v>44278</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K11" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L11" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44208</v>
+        <v>44278</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K12" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="L12" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="M12" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44208</v>
+        <v>44278</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1300</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L13" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M13" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44208</v>
+        <v>44278</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M14" t="n">
-        <v>1889</v>
+        <v>1700</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1889</v>
+        <v>1700</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44208</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K15" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L15" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M15" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44280</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K17" t="n">
         <v>2500</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44280</v>
+        <v>44259</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K18" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M18" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44280</v>
+        <v>44259</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1728,13 +1728,13 @@
         <v>340</v>
       </c>
       <c r="K19" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L19" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M19" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44280</v>
+        <v>44259</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>160</v>
       </c>
       <c r="K20" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L20" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M20" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44280</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K21" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L21" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M21" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44194</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K22" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M22" t="n">
-        <v>2700</v>
+        <v>3250</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2700</v>
+        <v>3250</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44194</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K23" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L23" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M23" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44194</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K24" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="L24" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="M24" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2000</v>
+        <v>4500</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44285</v>
+        <v>44174</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>50</v>
+        <v>520</v>
       </c>
       <c r="K25" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L25" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="M25" t="n">
-        <v>1600</v>
+        <v>3750</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1600</v>
+        <v>3750</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44286</v>
+        <v>44174</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K26" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L26" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M26" t="n">
-        <v>2600</v>
+        <v>2750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2600</v>
+        <v>2750</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44286</v>
+        <v>44202</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K27" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L27" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M27" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44286</v>
+        <v>44202</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K28" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L28" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M28" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44286</v>
+        <v>44202</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K29" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L29" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M29" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44286</v>
+        <v>44202</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K30" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L30" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M30" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44286</v>
+        <v>44258</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L31" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M31" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44201</v>
+        <v>44258</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K32" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L32" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M32" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2733,29 +2733,29 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="K33" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="L33" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="M33" t="n">
-        <v>2931</v>
+        <v>845</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>2931</v>
+        <v>845</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K34" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L34" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M34" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44201</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K35" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="L35" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M35" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44266</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K36" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L36" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M36" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44266</v>
+        <v>44224</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K37" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L37" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M37" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44266</v>
+        <v>44272</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>340</v>
       </c>
       <c r="K38" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L38" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M38" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44266</v>
+        <v>44272</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K39" t="n">
         <v>2500</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44266</v>
+        <v>44272</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K40" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="L40" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="M40" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44271</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3305,33 +3305,33 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K41" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="L41" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="M41" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44202</v>
+        <v>44271</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K42" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L42" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M42" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44202</v>
+        <v>44271</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K43" t="n">
         <v>2500</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44202</v>
+        <v>44271</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="K44" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L44" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M44" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44202</v>
+        <v>44271</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K45" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L45" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="M45" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44165</v>
+        <v>44271</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3665,33 +3665,33 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K46" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="L46" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="M46" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44216</v>
+        <v>44271</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K47" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L47" t="n">
         <v>3000</v>
       </c>
       <c r="M47" t="n">
-        <v>2688</v>
+        <v>3000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2688</v>
+        <v>3000</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44216</v>
+        <v>44271</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K48" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L48" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M48" t="n">
-        <v>2091</v>
+        <v>3000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2091</v>
+        <v>3000</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44216</v>
+        <v>44238</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K49" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L49" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M49" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44260</v>
+        <v>44299</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3963,10 +3963,10 @@
         <v>2800</v>
       </c>
       <c r="L50" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M50" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44260</v>
+        <v>44284</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4025,11 +4025,11 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K51" t="n">
         <v>2500</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44260</v>
+        <v>44284</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
         <v>160</v>
       </c>
       <c r="K52" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L52" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M52" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44260</v>
+        <v>44284</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K53" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L53" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M53" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44281</v>
+        <v>44216</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>70</v>
+        <v>800</v>
       </c>
       <c r="K54" t="n">
         <v>2500</v>
       </c>
       <c r="L54" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M54" t="n">
-        <v>2500</v>
+        <v>2688</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2500</v>
+        <v>2688</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44281</v>
+        <v>44216</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K55" t="n">
         <v>2000</v>
       </c>
       <c r="L55" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M55" t="n">
-        <v>2000</v>
+        <v>2091</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2000</v>
+        <v>2091</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44281</v>
+        <v>44216</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K56" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L56" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M56" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K57" t="n">
         <v>2800</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K58" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L58" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M58" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K59" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L59" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M59" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K60" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L60" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M60" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K61" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L61" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M61" t="n">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2100</v>
+        <v>2650</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K62" t="n">
         <v>2100</v>
       </c>
       <c r="L62" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="M62" t="n">
-        <v>2100</v>
+        <v>2250</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2100</v>
+        <v>2250</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K63" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L63" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M63" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4911,11 +4911,11 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44271</v>
+        <v>44245</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K64" t="n">
         <v>3000</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44181</v>
+        <v>44250</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5040,13 +5040,13 @@
         <v>250</v>
       </c>
       <c r="K65" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L65" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M65" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44181</v>
+        <v>44250</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K66" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L66" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M66" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44181</v>
+        <v>44250</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K67" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L67" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M67" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44246</v>
+        <v>44281</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K68" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L68" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M68" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44246</v>
+        <v>44281</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K69" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L69" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M69" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44246</v>
+        <v>44281</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K70" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L70" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M70" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44246</v>
+        <v>44452</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5465,33 +5465,33 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K71" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L71" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M71" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44239</v>
+        <v>44223</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K72" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L72" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M72" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44239</v>
+        <v>44223</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K73" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L73" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M73" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44239</v>
+        <v>44223</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K74" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L74" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M74" t="n">
-        <v>3250</v>
+        <v>2367</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3250</v>
+        <v>2367</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44172</v>
+        <v>44223</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>520</v>
+        <v>1200</v>
       </c>
       <c r="K75" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="L75" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M75" t="n">
-        <v>4000</v>
+        <v>2325</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4000</v>
+        <v>2325</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44172</v>
+        <v>44223</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K76" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L76" t="n">
         <v>3500</v>
       </c>
       <c r="M76" t="n">
-        <v>3250</v>
+        <v>3500</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3250</v>
+        <v>3500</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44258</v>
+        <v>44223</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K77" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L77" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M77" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44258</v>
+        <v>44246</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K78" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L78" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M78" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44174</v>
+        <v>44246</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K79" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L79" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M79" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3750</v>
+        <v>2250</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44174</v>
+        <v>44246</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K80" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L80" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M80" t="n">
-        <v>2750</v>
+        <v>1800</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>2750</v>
+        <v>1800</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44284</v>
+        <v>44246</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K81" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L81" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M81" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44284</v>
+        <v>44161</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="K82" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L82" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M82" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44284</v>
+        <v>44274</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K83" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L83" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M83" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44159</v>
+        <v>44274</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,29 +6405,29 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K84" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L84" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="M84" t="n">
-        <v>845</v>
+        <v>2500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>845</v>
+        <v>2500</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44245</v>
+        <v>44274</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K85" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L85" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M85" t="n">
-        <v>2650</v>
+        <v>2100</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2650</v>
+        <v>2100</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44245</v>
+        <v>44200</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>520</v>
       </c>
       <c r="K86" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="L86" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="M86" t="n">
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2250</v>
+        <v>4000</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44245</v>
+        <v>44200</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K87" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L87" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="M87" t="n">
-        <v>1800</v>
+        <v>3650</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1800</v>
+        <v>3650</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44245</v>
+        <v>44200</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K88" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L88" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M88" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="K89" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L89" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M89" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="K90" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L90" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M90" t="n">
-        <v>2925</v>
+        <v>2500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2925</v>
+        <v>2500</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44187</v>
+        <v>44208</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K91" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L91" t="n">
         <v>2000</v>
       </c>
       <c r="M91" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44278</v>
+        <v>44208</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K92" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L92" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M92" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44278</v>
+        <v>44214</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K93" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L93" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M93" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44278</v>
+        <v>44214</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L94" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M94" t="n">
-        <v>2000</v>
+        <v>2388</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2000</v>
+        <v>2388</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44278</v>
+        <v>44214</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K95" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="L95" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="M95" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44278</v>
+        <v>44237</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K96" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L96" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M96" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K97" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="L97" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="M97" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44250</v>
+        <v>44285</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K98" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L98" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M98" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44250</v>
+        <v>44285</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K99" t="n">
         <v>2000</v>
       </c>
       <c r="L99" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M99" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44250</v>
+        <v>44285</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K100" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L100" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M100" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44299</v>
+        <v>44167</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,29 +7629,29 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K101" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="L101" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M101" t="n">
-        <v>2900</v>
+        <v>555</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2900</v>
+        <v>555</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="K102" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L102" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M102" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>610</v>
+        <v>1100</v>
       </c>
       <c r="K103" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L103" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="M103" t="n">
-        <v>3650</v>
+        <v>2500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3650</v>
+        <v>2500</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44200</v>
+        <v>44210</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="K104" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="L104" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="M104" t="n">
-        <v>3200</v>
+        <v>1889</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3200</v>
+        <v>1889</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44265</v>
+        <v>44210</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L105" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M105" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44265</v>
+        <v>44217</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K106" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L106" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M106" t="n">
-        <v>2800</v>
+        <v>2820</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2800</v>
+        <v>2820</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44265</v>
+        <v>44217</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K107" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L107" t="n">
         <v>2500</v>
       </c>
       <c r="M107" t="n">
-        <v>2500</v>
+        <v>2338</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2500</v>
+        <v>2338</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44265</v>
+        <v>44217</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K108" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L108" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M108" t="n">
-        <v>2600</v>
+        <v>1612</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2600</v>
+        <v>1612</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K109" t="n">
         <v>2800</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
         <v>250</v>
       </c>
       <c r="K110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44252</v>
+        <v>44266</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K111" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L111" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M111" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K112" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L112" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M112" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44267</v>
+        <v>44266</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
         <v>160</v>
       </c>
       <c r="K113" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L113" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M113" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44267</v>
+        <v>44165</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,29 +8565,29 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K114" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="L114" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M114" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44267</v>
+        <v>44172</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K115" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L115" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M115" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44267</v>
+        <v>44172</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K116" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L116" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M116" t="n">
-        <v>2300</v>
+        <v>3250</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2300</v>
+        <v>3250</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44267</v>
+        <v>44249</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K117" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L117" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M117" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44292</v>
+        <v>44265</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8856,13 +8856,13 @@
         <v>160</v>
       </c>
       <c r="K118" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L118" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M118" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44292</v>
+        <v>44265</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44292</v>
+        <v>44265</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,11 +8993,11 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K120" t="n">
         <v>2500</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44259</v>
+        <v>44265</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K121" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L121" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M121" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44259</v>
+        <v>44201</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K122" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L122" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M122" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44259</v>
+        <v>44201</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K123" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L123" t="n">
         <v>3000</v>
       </c>
       <c r="M123" t="n">
-        <v>3000</v>
+        <v>2931</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3000</v>
+        <v>2931</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44224</v>
+        <v>44201</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K124" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L124" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M124" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44224</v>
+        <v>44201</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="K125" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="L125" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M125" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44280</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K126" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L126" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M126" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44280</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44217</v>
+        <v>44280</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K128" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L128" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M128" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44217</v>
+        <v>44280</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="K129" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="L129" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M129" t="n">
-        <v>2338</v>
+        <v>1900</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2338</v>
+        <v>1900</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44217</v>
+        <v>44280</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K130" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L130" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M130" t="n">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44249</v>
+        <v>44280</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K131" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L131" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M131" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44168</v>
+        <v>44260</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K132" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L132" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M132" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44168</v>
+        <v>44260</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K133" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L133" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M133" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44168</v>
+        <v>44260</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L134" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M134" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K135" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L135" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M135" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44272</v>
+        <v>44267</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44272</v>
+        <v>44267</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K137" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L137" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M137" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44196</v>
+        <v>44267</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K138" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L138" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M138" t="n">
-        <v>3350</v>
+        <v>2500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3350</v>
+        <v>2500</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44196</v>
+        <v>44267</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K139" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L139" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M139" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44196</v>
+        <v>44267</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L140" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="M140" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44452</v>
+        <v>44267</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,33 +10505,33 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>160</v>
       </c>
       <c r="K141" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="L141" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="M141" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44274</v>
+        <v>44187</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="K142" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L142" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M142" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44274</v>
+        <v>44187</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="K143" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L143" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M143" t="n">
-        <v>2500</v>
+        <v>2925</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2500</v>
+        <v>2925</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44274</v>
+        <v>44187</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K144" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="L144" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M144" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44194</v>
+        <v>44264</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K145" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L145" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M145" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44194</v>
+        <v>44264</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K146" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L146" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M146" t="n">
-        <v>3250</v>
+        <v>2800</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3250</v>
+        <v>2800</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44194</v>
+        <v>44264</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K147" t="n">
         <v>2500</v>
       </c>
       <c r="L147" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M147" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44194</v>
+        <v>44264</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K148" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L148" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="M148" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
         <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L149" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M149" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44264</v>
+        <v>44196</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K150" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L150" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M150" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44264</v>
+        <v>44196</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
         <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L151" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M151" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44264</v>
+        <v>44196</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K152" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L152" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M152" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44264</v>
+        <v>44251</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K153" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L153" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M153" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,11 +11441,11 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K154" t="n">
         <v>3000</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44210</v>
+        <v>44243</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K155" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L155" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M155" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44210</v>
+        <v>44243</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K156" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L156" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M156" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44210</v>
+        <v>44243</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L157" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M157" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K159" t="n">
         <v>2500</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44253</v>
+        <v>44252</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K160" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L160" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="M160" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44253</v>
+        <v>44166</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,33 +11945,33 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L161" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44244</v>
+        <v>44168</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K162" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L162" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M162" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44244</v>
+        <v>44168</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L163" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M163" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44244</v>
+        <v>44168</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P164" t="n">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44244</v>
+        <v>44279</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44176</v>
+        <v>44279</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K166" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L166" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M166" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44176</v>
+        <v>44279</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K167" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L167" t="n">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="M167" t="n">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44237</v>
+        <v>44273</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K168" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L168" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M168" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K170" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L170" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M170" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>2800</v>
+        <v>210</v>
       </c>
       <c r="L172" t="n">
-        <v>2800</v>
+        <v>210</v>
       </c>
       <c r="M172" t="n">
-        <v>2800</v>
+        <v>210</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2800</v>
+        <v>210</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K173" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L173" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M173" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44273</v>
+        <v>44286</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L174" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M174" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44273</v>
+        <v>44286</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L175" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M175" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44273</v>
+        <v>44286</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K176" t="n">
-        <v>210</v>
+        <v>2300</v>
       </c>
       <c r="L176" t="n">
-        <v>210</v>
+        <v>2300</v>
       </c>
       <c r="M176" t="n">
-        <v>210</v>
+        <v>2300</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>210</v>
+        <v>2300</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44273</v>
+        <v>44286</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K177" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="L177" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="M177" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L178" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M178" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44294</v>
+        <v>44286</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K179" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L179" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M179" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44294</v>
+        <v>44175</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K180" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L180" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M180" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44161</v>
+        <v>44175</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L181" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M181" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L182" t="n">
         <v>2800</v>
       </c>
       <c r="M182" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
         <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L183" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M183" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="K184" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L184" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M184" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44175</v>
+        <v>44244</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K185" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M185" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44279</v>
+        <v>44244</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K186" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L186" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M186" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44279</v>
+        <v>44244</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,11 +13817,11 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
         <v>2000</v>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44279</v>
+        <v>44244</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M188" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44223</v>
+        <v>44176</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44223</v>
+        <v>44176</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K190" t="n">
         <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M190" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44223</v>
+        <v>44239</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="K191" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L191" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M191" t="n">
-        <v>2367</v>
+        <v>2650</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2367</v>
+        <v>2650</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44223</v>
+        <v>44239</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K192" t="n">
         <v>2200</v>
       </c>
       <c r="L192" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M192" t="n">
-        <v>2325</v>
+        <v>2300</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2325</v>
+        <v>2300</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44223</v>
+        <v>44239</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L193" t="n">
         <v>3500</v>
       </c>
       <c r="M193" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44223</v>
+        <v>44292</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L194" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M194" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44167</v>
+        <v>44292</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,29 +14397,29 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K195" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="L195" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="M195" t="n">
-        <v>555</v>
+        <v>2800</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>555</v>
+        <v>2800</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44238</v>
+        <v>44292</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K196" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L196" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M196" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R196"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44165</v>
+        <v>44455</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K114" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L114" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M114" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,29 +8637,29 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K115" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L115" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M115" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K116" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L116" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M116" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K117" t="n">
         <v>3000</v>
       </c>
       <c r="L117" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M117" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K118" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L118" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M118" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K119" t="n">
         <v>2800</v>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P119" t="n">
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>250</v>
       </c>
       <c r="K120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K121" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L121" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M121" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K122" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L122" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M122" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K123" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L123" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M123" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K124" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L124" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M124" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L125" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M125" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K126" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L126" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M126" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K128" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L128" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M128" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9648,13 +9648,13 @@
         <v>340</v>
       </c>
       <c r="K129" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L129" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M129" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K130" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L130" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M130" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9792,13 +9792,13 @@
         <v>160</v>
       </c>
       <c r="K131" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L131" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M131" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L132" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M132" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K134" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L134" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M134" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L135" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M135" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K136" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L136" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M136" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K137" t="n">
         <v>2800</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K140" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L140" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M140" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L142" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M142" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K143" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L143" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M143" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K144" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L144" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M144" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K145" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L145" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M145" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
         <v>2800</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>250</v>
       </c>
       <c r="K147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K148" t="n">
         <v>2500</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K149" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L149" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M149" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="L150" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M150" t="n">
-        <v>3350</v>
+        <v>2200</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3350</v>
+        <v>2200</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K151" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="L151" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M151" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K152" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L152" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M152" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L153" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M153" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K154" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L154" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M154" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K155" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L155" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M155" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K156" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L156" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M156" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K157" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L157" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M157" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K158" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L158" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M158" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K160" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L160" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M160" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,33 +11945,33 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K161" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L161" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M161" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,24 +12017,24 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L162" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M162" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K163" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L163" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M163" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K164" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L164" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M164" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
         <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L165" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M165" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L166" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M166" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K167" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L167" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M167" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L168" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M168" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K169" t="n">
         <v>2800</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P169" t="n">
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K170" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L170" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M170" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K172" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L172" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M172" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L173" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M173" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K174" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L174" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M174" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12960,13 +12960,13 @@
         <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L175" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M175" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L176" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M176" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K177" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L177" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M177" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K178" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L178" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M178" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13245,7 +13245,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
         <v>2000</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L180" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M180" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K181" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L181" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M181" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L182" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M182" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K183" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L183" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M183" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L184" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M184" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K186" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L186" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M186" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K187" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L187" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M187" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L188" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M188" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K190" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L190" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M190" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K191" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L191" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M191" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K192" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L192" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M192" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K193" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L193" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M193" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J194" t="n">
@@ -14331,10 +14331,10 @@
         <v>3000</v>
       </c>
       <c r="L194" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M194" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M195" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,38 +14465,110 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>250</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>1</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>9</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13</v>
+      </c>
+      <c r="F197" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J196" t="n">
+      <c r="J197" t="n">
         <v>70</v>
       </c>
-      <c r="K196" t="n">
+      <c r="K197" t="n">
         <v>2500</v>
       </c>
-      <c r="L196" t="n">
+      <c r="L197" t="n">
         <v>2500</v>
       </c>
-      <c r="M196" t="n">
+      <c r="M197" t="n">
         <v>2500</v>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P196" t="n">
+      <c r="P197" t="n">
         <v>2500</v>
       </c>
-      <c r="Q196" t="n">
-        <v>1</v>
-      </c>
-      <c r="R196" t="inlineStr">
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44224</v>
+        <v>44459</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2801,33 +2801,33 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="K34" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L34" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M34" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="K35" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L35" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M35" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K36" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L36" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M36" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K37" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L37" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M37" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44272</v>
+        <v>44224</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K38" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L38" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M38" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K39" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L39" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M39" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K40" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L40" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M40" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
         <v>250</v>
       </c>
       <c r="K41" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L41" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M41" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K42" t="n">
         <v>2800</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>340</v>
       </c>
       <c r="K43" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L43" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M43" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K44" t="n">
         <v>2500</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K46" t="n">
         <v>2100</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K47" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L47" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M47" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44238</v>
+        <v>44271</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44299</v>
+        <v>44238</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K50" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L50" t="n">
         <v>3000</v>
       </c>
       <c r="M50" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K51" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L51" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M51" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K52" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L52" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M52" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K53" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L53" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M53" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L54" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M54" t="n">
-        <v>2688</v>
+        <v>1600</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2688</v>
+        <v>1600</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K55" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L55" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M55" t="n">
-        <v>2091</v>
+        <v>2688</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2091</v>
+        <v>2688</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="K56" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L56" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M56" t="n">
-        <v>3500</v>
+        <v>2091</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3500</v>
+        <v>2091</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K57" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L57" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M57" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K58" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L58" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M58" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K59" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L59" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M59" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>250</v>
       </c>
       <c r="K60" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L60" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M60" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K61" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L61" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M61" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K62" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L62" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M62" t="n">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K63" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L63" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M63" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K64" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L64" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M64" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K65" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L65" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M65" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K66" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L66" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M66" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K67" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L67" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M67" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K68" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L68" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M68" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K69" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L69" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M69" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K70" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L70" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M70" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44452</v>
+        <v>44281</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5465,33 +5465,33 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>160</v>
       </c>
       <c r="K71" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L71" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M71" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44223</v>
+        <v>44452</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5537,33 +5537,33 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K72" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L72" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M72" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K73" t="n">
         <v>3000</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K74" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L74" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M74" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K75" t="n">
         <v>2200</v>
@@ -5766,7 +5766,7 @@
         <v>2500</v>
       </c>
       <c r="M75" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K76" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L76" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M76" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K77" t="n">
         <v>3500</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K78" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L78" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M78" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K79" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L79" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M79" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K80" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L80" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M80" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="K82" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L82" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M82" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44274</v>
+        <v>44161</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="K83" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L83" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M83" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K84" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L84" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M84" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K85" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L85" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M85" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K86" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="L86" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="M86" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K87" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L87" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M87" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K88" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L88" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M88" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K89" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L89" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M89" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K90" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L90" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M90" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K91" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L91" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M91" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K92" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L92" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M92" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K93" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L93" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M93" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K94" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L94" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M94" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L95" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M95" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K97" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L97" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M97" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K98" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L98" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M98" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K99" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L99" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M99" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K100" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L100" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M100" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,33 +7625,33 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="K101" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="L101" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="M101" t="n">
-        <v>555</v>
+        <v>1600</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>555</v>
+        <v>1600</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,33 +7697,33 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
+        <v>550</v>
+      </c>
+      <c r="K102" t="n">
         <v>500</v>
       </c>
-      <c r="K102" t="n">
-        <v>3000</v>
-      </c>
       <c r="L102" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M102" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K103" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L103" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M103" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K104" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L104" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M104" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K105" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L105" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M105" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K106" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L106" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M106" t="n">
-        <v>2820</v>
+        <v>3500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2820</v>
+        <v>3500</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K107" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L107" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M107" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K108" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L108" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M108" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K109" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L109" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M109" t="n">
-        <v>2800</v>
+        <v>1612</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2800</v>
+        <v>1612</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K111" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L111" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M111" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K113" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L113" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M113" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,33 +8561,33 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
         <v>160</v>
       </c>
       <c r="K114" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L114" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="M114" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44165</v>
+        <v>44455</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K115" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L115" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M115" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,29 +8709,29 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K116" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L116" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M116" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K117" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L117" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M117" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K118" t="n">
         <v>3000</v>
       </c>
       <c r="L118" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M118" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K119" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L119" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M119" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K120" t="n">
         <v>2800</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
         <v>250</v>
       </c>
       <c r="K121" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L121" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M121" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K122" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L122" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M122" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K123" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L123" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M123" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K124" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L124" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M124" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K125" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L125" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M125" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K126" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L126" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M126" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K127" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L127" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M127" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K129" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L129" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M129" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9720,13 +9720,13 @@
         <v>340</v>
       </c>
       <c r="K130" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L130" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M130" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K131" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L131" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M131" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9864,13 +9864,13 @@
         <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L132" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M132" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L133" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M133" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K134" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L134" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M134" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K135" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L135" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M135" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L136" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M136" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K137" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L137" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M137" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K138" t="n">
         <v>2800</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K141" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L141" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M141" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K143" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L143" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M143" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K144" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L144" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M144" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K145" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L145" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M145" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L146" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M146" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K147" t="n">
         <v>2800</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
         <v>250</v>
       </c>
       <c r="K148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K149" t="n">
         <v>2500</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K150" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L150" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M150" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K151" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="L151" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M151" t="n">
-        <v>3350</v>
+        <v>2200</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3350</v>
+        <v>2200</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K152" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="L152" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M152" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K153" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L153" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M153" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K154" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L154" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M154" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K155" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L155" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M155" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K156" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L156" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M156" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K157" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L157" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M157" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K158" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L158" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M158" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L159" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M159" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L161" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M161" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,33 +12017,33 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L162" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M162" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,24 +12089,24 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L163" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M163" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K164" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L164" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M164" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K165" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L165" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M165" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J166" t="n">
         <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L166" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M166" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L167" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M167" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K168" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L168" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M168" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L169" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M169" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K170" t="n">
         <v>2800</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K171" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L171" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M171" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K173" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L173" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M173" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L174" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M174" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K175" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L175" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M175" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13032,13 +13032,13 @@
         <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L176" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M176" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L177" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M177" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K178" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L178" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M178" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K179" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L179" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M179" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
         <v>2000</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L181" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M181" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K182" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L182" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M182" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M183" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K184" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L184" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M184" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M185" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K186" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M186" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K187" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L187" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M187" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K188" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L188" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M188" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K191" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L191" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M191" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L192" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M192" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K193" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L193" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M193" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K194" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L194" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M194" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J195" t="n">
@@ -14403,10 +14403,10 @@
         <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M195" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L196" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M196" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,38 +14537,110 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>250</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>9</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E198" t="n">
+        <v>13</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J197" t="n">
+      <c r="J198" t="n">
         <v>70</v>
       </c>
-      <c r="K197" t="n">
+      <c r="K198" t="n">
         <v>2500</v>
       </c>
-      <c r="L197" t="n">
+      <c r="L198" t="n">
         <v>2500</v>
       </c>
-      <c r="M197" t="n">
+      <c r="M198" t="n">
         <v>2500</v>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P197" t="n">
+      <c r="P198" t="n">
         <v>2500</v>
       </c>
-      <c r="Q197" t="n">
-        <v>1</v>
-      </c>
-      <c r="R197" t="inlineStr">
+      <c r="Q198" t="n">
+        <v>1</v>
+      </c>
+      <c r="R198" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R198"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,29 +11301,29 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K152" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="L152" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="M152" t="n">
-        <v>3350</v>
+        <v>1200</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3350</v>
+        <v>1200</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K153" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="L153" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M153" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K154" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="L154" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="M154" t="n">
-        <v>2200</v>
+        <v>3350</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2200</v>
+        <v>3350</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,21 +11513,21 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K155" t="n">
         <v>2600</v>
       </c>
       <c r="L155" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M155" t="n">
         <v>2800</v>
       </c>
-      <c r="M155" t="n">
-        <v>2700</v>
-      </c>
       <c r="N155" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K156" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L156" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M156" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11664,10 +11664,10 @@
         <v>340</v>
       </c>
       <c r="K157" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L157" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M157" t="n">
         <v>2700</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K158" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L158" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M158" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K159" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L159" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M159" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K160" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L160" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M160" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K161" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L161" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M161" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L163" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="M163" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L164" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M164" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12240,17 +12240,17 @@
         <v>400</v>
       </c>
       <c r="K165" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L165" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M165" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K166" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L166" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M166" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,11 +12449,11 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K168" t="n">
         <v>2000</v>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P168" t="n">
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L169" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M169" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K170" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L170" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M170" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
         <v>160</v>
       </c>
       <c r="K171" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L171" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M171" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K172" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L172" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M172" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K174" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L174" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M174" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K175" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L175" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M175" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="L176" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="M176" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K177" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="L177" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="M177" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L178" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M178" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L179" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M179" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K180" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L180" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M180" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K181" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L181" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M181" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L182" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M182" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13536,13 +13536,13 @@
         <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L183" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M183" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K184" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L184" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M184" t="n">
-        <v>2800</v>
+        <v>3750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2800</v>
+        <v>3750</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
         <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L186" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M186" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L187" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M187" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="K188" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M188" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K189" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L189" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M189" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K190" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L190" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M190" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K191" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L191" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M191" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K192" t="n">
         <v>3000</v>
       </c>
       <c r="L192" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M192" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="K193" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L193" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M193" t="n">
-        <v>2650</v>
+        <v>3750</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2650</v>
+        <v>3750</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K194" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L194" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M194" t="n">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K195" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L195" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M195" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K196" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L196" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M196" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L197" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M197" t="n">
-        <v>2800</v>
+        <v>3250</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2800</v>
+        <v>3250</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,38 +14609,182 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>160</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M198" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>1</v>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>9</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E199" t="n">
+        <v>13</v>
+      </c>
+      <c r="F199" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>250</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>1</v>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>9</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E200" t="n">
+        <v>13</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J198" t="n">
+      <c r="J200" t="n">
         <v>70</v>
       </c>
-      <c r="K198" t="n">
+      <c r="K200" t="n">
         <v>2500</v>
       </c>
-      <c r="L198" t="n">
+      <c r="L200" t="n">
         <v>2500</v>
       </c>
-      <c r="M198" t="n">
+      <c r="M200" t="n">
         <v>2500</v>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P198" t="n">
+      <c r="P200" t="n">
         <v>2500</v>
       </c>
-      <c r="Q198" t="n">
-        <v>1</v>
-      </c>
-      <c r="R198" t="inlineStr">
+      <c r="Q200" t="n">
+        <v>1</v>
+      </c>
+      <c r="R200" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R200"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,33 +8921,33 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K119" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M119" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9069,7 +9069,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K121" t="n">
         <v>2800</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
         <v>250</v>
       </c>
       <c r="K122" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L122" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M122" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K123" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L123" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M123" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K124" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L124" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M124" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K125" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L125" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M125" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K126" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L126" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M126" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K127" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L127" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M127" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K128" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L128" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M128" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K130" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L130" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M130" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9792,13 +9792,13 @@
         <v>340</v>
       </c>
       <c r="K131" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L131" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M131" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K132" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L132" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M132" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9936,13 +9936,13 @@
         <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L133" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M133" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L134" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M134" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K136" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L136" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M136" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K137" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L137" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M137" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K138" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L138" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M138" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K139" t="n">
         <v>2800</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K142" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L142" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M142" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K144" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L144" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M144" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K145" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L145" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M145" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K146" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L146" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M146" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K147" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L147" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M147" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K148" t="n">
         <v>2800</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J149" t="n">
         <v>250</v>
       </c>
       <c r="K149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K150" t="n">
         <v>2500</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K151" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L151" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M151" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,33 +11297,33 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K152" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L152" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="M152" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K153" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L153" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M153" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,33 +11441,33 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K154" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="L154" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M154" t="n">
-        <v>3350</v>
+        <v>1000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3350</v>
+        <v>1000</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K155" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="L155" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M155" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K156" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L156" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M156" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L157" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M157" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K158" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L158" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M158" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K159" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L159" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M159" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K160" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L160" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M160" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K161" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L161" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M161" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L162" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M162" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K163" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L163" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M163" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K164" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L164" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M164" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,33 +12233,33 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K165" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L165" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M165" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,24 +12305,24 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L166" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M166" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K167" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L167" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M167" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L168" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M168" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
         <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L169" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M169" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K171" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L171" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M171" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L172" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M172" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K173" t="n">
         <v>2800</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L174" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M174" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K176" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L176" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M176" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L177" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M177" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K178" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L178" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M178" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13248,13 +13248,13 @@
         <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L179" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M179" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L180" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M180" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K181" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L181" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M181" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K182" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L182" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M182" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K183" t="n">
         <v>2000</v>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L184" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M184" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K185" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M185" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M186" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L187" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M187" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L188" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M188" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K189" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K190" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L190" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M190" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K191" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L191" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M191" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L192" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M192" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L193" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M193" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K194" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L194" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M194" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K195" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M195" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K196" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L196" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M196" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K197" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L197" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M197" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J198" t="n">
@@ -14619,10 +14619,10 @@
         <v>3000</v>
       </c>
       <c r="L198" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M198" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L199" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M199" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,38 +14753,110 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>250</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>1</v>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>9</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E201" t="n">
+        <v>13</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J200" t="n">
+      <c r="J201" t="n">
         <v>70</v>
       </c>
-      <c r="K200" t="n">
+      <c r="K201" t="n">
         <v>2500</v>
       </c>
-      <c r="L200" t="n">
+      <c r="L201" t="n">
         <v>2500</v>
       </c>
-      <c r="M200" t="n">
+      <c r="M201" t="n">
         <v>2500</v>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr">
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P200" t="n">
+      <c r="P201" t="n">
         <v>2500</v>
       </c>
-      <c r="Q200" t="n">
-        <v>1</v>
-      </c>
-      <c r="R200" t="inlineStr">
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R201"/>
+  <dimension ref="A1:R203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4032,26 +4032,26 @@
         <v>250</v>
       </c>
       <c r="K51" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L51" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M51" t="n">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2900</v>
+        <v>900</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44284</v>
+        <v>44469</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4097,33 +4097,33 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K52" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="L52" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="M52" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K53" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L53" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M53" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K54" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L54" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M54" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K55" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L55" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M55" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2688</v>
+        <v>2000</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1100</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L56" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M56" t="n">
-        <v>2091</v>
+        <v>1600</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>2091</v>
+        <v>1600</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K57" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L57" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M57" t="n">
-        <v>3500</v>
+        <v>2688</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3500</v>
+        <v>2688</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="K58" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L58" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M58" t="n">
-        <v>2800</v>
+        <v>2091</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2800</v>
+        <v>2091</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="K59" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L59" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M59" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K60" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L60" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M60" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K61" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L61" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M61" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K62" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L62" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M62" t="n">
-        <v>2650</v>
+        <v>2100</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2650</v>
+        <v>2100</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K63" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L63" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M63" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K64" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L64" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M64" t="n">
-        <v>1800</v>
+        <v>2650</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1800</v>
+        <v>2650</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K65" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L65" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M65" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
         <v>250</v>
       </c>
       <c r="K66" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L66" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M66" t="n">
-        <v>2650</v>
+        <v>1800</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2650</v>
+        <v>1800</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K67" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L67" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M67" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K68" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L68" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M68" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K69" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L69" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M69" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K70" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L70" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M70" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K71" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L71" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M71" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44452</v>
+        <v>44281</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,29 +5541,29 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K72" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L72" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M72" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44223</v>
+        <v>44281</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K73" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L73" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M73" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44223</v>
+        <v>44452</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,33 +5681,33 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K74" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L74" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M74" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L75" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M75" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K76" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L76" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M76" t="n">
-        <v>2325</v>
+        <v>3000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2325</v>
+        <v>3000</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K77" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L77" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M77" t="n">
-        <v>3500</v>
+        <v>2367</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3500</v>
+        <v>2367</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K78" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L78" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M78" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K79" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L79" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M79" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K80" t="n">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="L80" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M80" t="n">
-        <v>2250</v>
+        <v>3500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>2250</v>
+        <v>3500</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>250</v>
       </c>
       <c r="K81" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L81" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M81" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K82" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L82" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M82" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K83" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="L83" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="M83" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44274</v>
+        <v>44246</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K84" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L84" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M84" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44274</v>
+        <v>44161</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="K85" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L85" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M85" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K86" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L86" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M86" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K87" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L87" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M87" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>610</v>
+        <v>160</v>
       </c>
       <c r="K88" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L88" t="n">
-        <v>3800</v>
+        <v>2100</v>
       </c>
       <c r="M88" t="n">
-        <v>3650</v>
+        <v>2100</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3650</v>
+        <v>2100</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K89" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="L89" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M89" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="K90" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L90" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M90" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="K91" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L91" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M91" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K92" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L92" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M92" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K93" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L93" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M93" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K94" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L94" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M94" t="n">
-        <v>3000</v>
+        <v>1889</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3000</v>
+        <v>1889</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K95" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L95" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M95" t="n">
-        <v>2388</v>
+        <v>3500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2388</v>
+        <v>3500</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K96" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L96" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M96" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K97" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L97" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M97" t="n">
-        <v>3000</v>
+        <v>2388</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3000</v>
+        <v>2388</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44285</v>
+        <v>44214</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K98" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L98" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M98" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>340</v>
       </c>
       <c r="K99" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L99" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M99" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K100" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L100" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M100" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>50</v>
+        <v>340</v>
       </c>
       <c r="K101" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L101" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M101" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,33 +7697,33 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K102" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="L102" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M102" t="n">
-        <v>555</v>
+        <v>2000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>555</v>
+        <v>2000</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K103" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L103" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M103" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="K104" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="L104" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M104" t="n">
-        <v>2500</v>
+        <v>555</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2500</v>
+        <v>555</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K105" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L105" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M105" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K106" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L106" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M106" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K107" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L107" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M107" t="n">
-        <v>2820</v>
+        <v>1889</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2820</v>
+        <v>1889</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L108" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M108" t="n">
-        <v>2338</v>
+        <v>3500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2338</v>
+        <v>3500</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K109" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="L109" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M109" t="n">
-        <v>1612</v>
+        <v>2820</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1612</v>
+        <v>2820</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K110" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L110" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M110" t="n">
-        <v>2800</v>
+        <v>2338</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2800</v>
+        <v>2338</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K111" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L111" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M111" t="n">
-        <v>2800</v>
+        <v>1612</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2800</v>
+        <v>1612</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,29 +8637,29 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K115" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L115" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M115" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44165</v>
+        <v>44266</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,33 +8705,33 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="L116" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="M116" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44172</v>
+        <v>44455</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,29 +8781,29 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L117" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M117" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,33 +8849,33 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K118" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L118" t="n">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="M118" t="n">
-        <v>3250</v>
+        <v>600</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3250</v>
+        <v>600</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,29 +8925,29 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>97</v>
+        <v>520</v>
       </c>
       <c r="K119" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L119" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="M119" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K120" t="n">
         <v>3000</v>
       </c>
       <c r="L120" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M120" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,33 +9065,33 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K121" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L121" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M121" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J122" t="n">
         <v>250</v>
       </c>
       <c r="K122" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L122" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M122" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K123" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L123" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M123" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K124" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L124" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M124" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K125" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L125" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M125" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K126" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L126" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M126" t="n">
-        <v>2931</v>
+        <v>2600</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2931</v>
+        <v>2600</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K127" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L127" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M127" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K128" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L128" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M128" t="n">
-        <v>4000</v>
+        <v>2931</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4000</v>
+        <v>2931</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K129" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L129" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M129" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K130" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L130" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M130" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K131" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L131" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M131" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K132" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L132" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M132" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K133" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L133" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M133" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K134" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L134" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="M134" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L135" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M135" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L136" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M136" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K137" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L137" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M137" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K138" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L138" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M138" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K139" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L139" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M139" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K140" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L140" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M140" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K143" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L143" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M143" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K144" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L144" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M144" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K145" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L145" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M145" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L146" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M146" t="n">
-        <v>2925</v>
+        <v>2300</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2925</v>
+        <v>2300</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K147" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L147" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M147" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="K148" t="n">
         <v>2800</v>
       </c>
       <c r="L148" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M148" t="n">
-        <v>2800</v>
+        <v>2925</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2800</v>
+        <v>2925</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L151" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M151" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K153" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L153" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M153" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11448,26 +11448,26 @@
         <v>160</v>
       </c>
       <c r="K154" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="L154" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="M154" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,29 +11517,29 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K155" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="L155" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="M155" t="n">
-        <v>3350</v>
+        <v>1200</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3350</v>
+        <v>1200</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,29 +11589,29 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="L156" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M156" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="K157" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="L157" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="M157" t="n">
-        <v>2200</v>
+        <v>3350</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2200</v>
+        <v>3350</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,21 +11729,21 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K158" t="n">
         <v>2600</v>
       </c>
       <c r="L158" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M158" t="n">
         <v>2800</v>
       </c>
-      <c r="M158" t="n">
-        <v>2700</v>
-      </c>
       <c r="N158" t="inlineStr">
         <is>
           <t>$/unidad</t>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L159" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M159" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11880,10 +11880,10 @@
         <v>340</v>
       </c>
       <c r="K160" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L160" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M160" t="n">
         <v>2700</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L161" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M161" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K162" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L162" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M162" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K163" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L163" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M163" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L164" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M164" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L166" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="M166" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K167" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L167" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M167" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12456,17 +12456,17 @@
         <v>400</v>
       </c>
       <c r="K168" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L168" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M168" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K169" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L169" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M169" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,11 +12665,11 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K171" t="n">
         <v>2000</v>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K172" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L172" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M172" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K173" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L173" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M173" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L174" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M174" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K175" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L175" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M175" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L176" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M176" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K177" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L177" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M177" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K178" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L178" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M178" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
         <v>160</v>
       </c>
       <c r="K179" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="L179" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="M179" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2600</v>
+        <v>210</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="L180" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="M180" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K181" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L181" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M181" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L182" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M182" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K183" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L183" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M183" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K184" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L184" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M184" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L185" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M185" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13752,13 +13752,13 @@
         <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K187" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L187" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M187" t="n">
-        <v>2800</v>
+        <v>3750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2800</v>
+        <v>3750</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M188" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="K191" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L191" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M191" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K192" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L192" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M192" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K193" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L193" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M193" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K194" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L194" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M194" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
         <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M195" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="K196" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L196" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M196" t="n">
-        <v>2650</v>
+        <v>3750</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2650</v>
+        <v>3750</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L197" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M197" t="n">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="K198" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L198" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M198" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3250</v>
+        <v>2650</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K199" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L199" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M199" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L200" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M200" t="n">
-        <v>2800</v>
+        <v>3250</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2800</v>
+        <v>3250</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,38 +14825,182 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>160</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>1</v>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>9</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E202" t="n">
+        <v>13</v>
+      </c>
+      <c r="F202" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>250</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>9</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E203" t="n">
+        <v>13</v>
+      </c>
+      <c r="F203" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J201" t="n">
+      <c r="J203" t="n">
         <v>70</v>
       </c>
-      <c r="K201" t="n">
+      <c r="K203" t="n">
         <v>2500</v>
       </c>
-      <c r="L201" t="n">
+      <c r="L203" t="n">
         <v>2500</v>
       </c>
-      <c r="M201" t="n">
+      <c r="M203" t="n">
         <v>2500</v>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P201" t="n">
+      <c r="P203" t="n">
         <v>2500</v>
       </c>
-      <c r="Q201" t="n">
-        <v>1</v>
-      </c>
-      <c r="R201" t="inlineStr">
+      <c r="Q203" t="n">
+        <v>1</v>
+      </c>
+      <c r="R203" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R203"/>
+  <dimension ref="A1:R204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44258</v>
+        <v>44473</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2585,33 +2585,33 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M31" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K32" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L32" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M32" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44159</v>
+        <v>44258</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2729,33 +2729,33 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L33" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="M33" t="n">
-        <v>845</v>
+        <v>3000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>845</v>
+        <v>3000</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44459</v>
+        <v>44159</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L34" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M34" t="n">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1000</v>
+        <v>845</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44459</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -2873,33 +2873,33 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="K35" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M35" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="K36" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L36" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M36" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K37" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L37" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M37" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K38" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L38" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M38" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44272</v>
+        <v>44224</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K39" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L39" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M39" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K41" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L41" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M41" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>250</v>
       </c>
       <c r="K42" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L42" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M42" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K43" t="n">
         <v>2800</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>340</v>
       </c>
       <c r="K44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K45" t="n">
         <v>2500</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K46" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L46" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M46" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K47" t="n">
         <v>2100</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K48" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L48" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M48" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44238</v>
+        <v>44271</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44469</v>
+        <v>44238</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4025,33 +4025,33 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K51" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L51" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M51" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K52" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L52" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M52" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4169,33 +4169,33 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K53" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="L53" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="M53" t="n">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K54" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L54" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M54" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L55" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M55" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K56" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L56" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M56" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44216</v>
+        <v>44284</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="K57" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L57" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M57" t="n">
-        <v>2688</v>
+        <v>1600</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2688</v>
+        <v>1600</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K58" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L58" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M58" t="n">
-        <v>2091</v>
+        <v>2688</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2091</v>
+        <v>2688</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="K59" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L59" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M59" t="n">
-        <v>3500</v>
+        <v>2091</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3500</v>
+        <v>2091</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44253</v>
+        <v>44216</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K60" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L60" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M60" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K61" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L61" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M61" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K62" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L62" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M62" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>250</v>
       </c>
       <c r="K63" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L63" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M63" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K64" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L64" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M64" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K65" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L65" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M65" t="n">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K66" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L66" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M66" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K67" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L67" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M67" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44250</v>
+        <v>44245</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K68" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L68" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M68" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2650</v>
+        <v>3000</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K69" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L69" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M69" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K70" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L70" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M70" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K71" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L71" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M71" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5487,11 +5487,11 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K72" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L72" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M72" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K73" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L73" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M73" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44452</v>
+        <v>44281</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,33 +5681,33 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>160</v>
       </c>
       <c r="K74" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L74" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M74" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44223</v>
+        <v>44452</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5753,33 +5753,33 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K75" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L75" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M75" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K76" t="n">
         <v>3000</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K77" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L77" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M77" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K78" t="n">
         <v>2200</v>
@@ -5982,7 +5982,7 @@
         <v>2500</v>
       </c>
       <c r="M78" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K79" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L79" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M79" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K80" t="n">
         <v>3500</v>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K81" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L81" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M81" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K82" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L82" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M82" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K83" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L83" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M83" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K84" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L84" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M84" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="K85" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L85" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M85" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44274</v>
+        <v>44161</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="K86" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L86" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K87" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L87" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M87" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K88" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L88" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M88" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44200</v>
+        <v>44274</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K89" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="L89" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="M89" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4000</v>
+        <v>2100</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K90" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L90" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M90" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K91" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L91" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M91" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K92" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L92" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M92" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K93" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L93" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M93" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K94" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L94" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M94" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K95" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L95" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M95" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44214</v>
+        <v>44208</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K97" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L97" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M97" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K98" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L98" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M98" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44237</v>
+        <v>44214</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K99" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L99" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M99" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K100" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L100" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M100" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K101" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L101" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M101" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K102" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L102" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M102" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K103" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L103" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M103" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,33 +7841,33 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="K104" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="L104" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="M104" t="n">
-        <v>555</v>
+        <v>1600</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>555</v>
+        <v>1600</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,33 +7913,33 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
+        <v>550</v>
+      </c>
+      <c r="K105" t="n">
         <v>500</v>
       </c>
-      <c r="K105" t="n">
-        <v>3000</v>
-      </c>
       <c r="L105" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M105" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K106" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L106" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M106" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K107" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L107" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M107" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K108" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L108" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M108" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44217</v>
+        <v>44210</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K109" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L109" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M109" t="n">
-        <v>2820</v>
+        <v>3500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2820</v>
+        <v>3500</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K110" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L110" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M110" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K111" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L111" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M111" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K112" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L112" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M112" t="n">
-        <v>2800</v>
+        <v>1612</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2800</v>
+        <v>1612</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K114" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L114" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M114" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P115" t="n">
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K116" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L116" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M116" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,33 +8777,33 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
         <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L117" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="M117" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44165</v>
+        <v>44455</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K118" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L118" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M118" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,29 +8925,29 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K119" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L119" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K120" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L120" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M120" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,33 +9065,33 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="K121" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L121" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M121" t="n">
-        <v>1000</v>
+        <v>3250</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1000</v>
+        <v>3250</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,33 +9137,33 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K122" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L122" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M122" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K123" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L123" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M123" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K124" t="n">
         <v>2800</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
         <v>250</v>
       </c>
       <c r="K125" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L125" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M125" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K126" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L126" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M126" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K127" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L127" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M127" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K128" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L128" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M128" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K129" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L129" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M129" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K130" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L130" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M130" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K131" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L131" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M131" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K133" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L133" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M133" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10008,13 +10008,13 @@
         <v>340</v>
       </c>
       <c r="K134" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L134" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M134" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K135" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L135" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M135" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10152,13 +10152,13 @@
         <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L136" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M136" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44260</v>
+        <v>44280</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K137" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L137" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M137" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K139" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L139" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M139" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L140" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M140" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K141" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L141" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M141" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K142" t="n">
         <v>2800</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K143" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L143" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M143" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K145" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L145" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M145" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K147" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L147" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M147" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K148" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L148" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M148" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K149" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L149" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M149" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K150" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L150" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M150" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K151" t="n">
         <v>2800</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>250</v>
       </c>
       <c r="K152" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L152" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M152" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K153" t="n">
         <v>2500</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K154" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L154" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M154" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,33 +11513,33 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K155" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L155" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="M155" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K156" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L156" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M156" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,33 +11657,33 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="L157" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M157" t="n">
-        <v>3350</v>
+        <v>1000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3350</v>
+        <v>1000</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K158" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="L158" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M158" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K159" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L159" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M159" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="K160" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L160" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M160" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K161" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L161" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M161" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K162" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L162" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M162" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K163" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L163" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M163" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K164" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L164" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M164" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K165" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L165" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M165" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,33 +12449,33 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L168" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M168" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,24 +12521,24 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K169" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="L169" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="M169" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K170" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L170" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M170" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K171" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L171" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M171" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44279</v>
+        <v>44168</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>250</v>
       </c>
       <c r="K172" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L172" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M172" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K173" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L173" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M173" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K174" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L174" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M174" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44273</v>
+        <v>44279</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L175" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M175" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K176" t="n">
         <v>2800</v>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L177" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M177" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K179" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L179" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M179" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L180" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M180" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L181" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M181" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13464,13 +13464,13 @@
         <v>160</v>
       </c>
       <c r="K182" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L182" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M182" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K183" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L183" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M183" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K184" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L184" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M184" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K185" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L185" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M185" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
         <v>2000</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L187" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M187" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L188" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M188" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K189" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L190" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M190" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K191" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L191" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M191" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K193" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L193" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M193" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K195" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L195" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M195" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L196" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M196" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K197" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L197" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M197" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K198" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L198" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M198" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K199" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L199" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M199" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K200" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L200" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M200" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J201" t="n">
@@ -14835,10 +14835,10 @@
         <v>3000</v>
       </c>
       <c r="L201" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M201" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L202" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M202" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,38 +14969,110 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>250</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>1</v>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>9</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E204" t="n">
+        <v>13</v>
+      </c>
+      <c r="F204" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J203" t="n">
+      <c r="J204" t="n">
         <v>70</v>
       </c>
-      <c r="K203" t="n">
+      <c r="K204" t="n">
         <v>2500</v>
       </c>
-      <c r="L203" t="n">
+      <c r="L204" t="n">
         <v>2500</v>
       </c>
-      <c r="M203" t="n">
+      <c r="M204" t="n">
         <v>2500</v>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P203" t="n">
+      <c r="P204" t="n">
         <v>2500</v>
       </c>
-      <c r="Q203" t="n">
-        <v>1</v>
-      </c>
-      <c r="R203" t="inlineStr">
+      <c r="Q204" t="n">
+        <v>1</v>
+      </c>
+      <c r="R204" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:R205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44286</v>
+        <v>44474</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,33 +13457,33 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="L182" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="M182" t="n">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2600</v>
+        <v>900</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13536,13 +13536,13 @@
         <v>160</v>
       </c>
       <c r="K183" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L183" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M183" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K184" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L184" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M184" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K185" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L185" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M185" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K186" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L186" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M186" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
         <v>2000</v>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44175</v>
+        <v>44286</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L188" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M188" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44257</v>
+        <v>44175</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K190" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L191" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M191" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L192" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M192" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K193" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L193" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M193" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K195" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L195" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M195" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K196" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L196" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M196" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L197" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M197" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K198" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L198" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M198" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K199" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L199" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M199" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2650</v>
+        <v>3100</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K200" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L200" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M200" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K201" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L201" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M201" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J202" t="n">
@@ -14907,10 +14907,10 @@
         <v>3000</v>
       </c>
       <c r="L202" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M202" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L203" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M203" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,38 +15041,110 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>250</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>1</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="E205" t="n">
+        <v>13</v>
+      </c>
+      <c r="F205" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J204" t="n">
+      <c r="J205" t="n">
         <v>70</v>
       </c>
-      <c r="K204" t="n">
+      <c r="K205" t="n">
         <v>2500</v>
       </c>
-      <c r="L204" t="n">
+      <c r="L205" t="n">
         <v>2500</v>
       </c>
-      <c r="M204" t="n">
+      <c r="M205" t="n">
         <v>2500</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P204" t="n">
+      <c r="P205" t="n">
         <v>2500</v>
       </c>
-      <c r="Q204" t="n">
-        <v>1</v>
-      </c>
-      <c r="R204" t="inlineStr">
+      <c r="Q205" t="n">
+        <v>1</v>
+      </c>
+      <c r="R205" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44181</v>
+        <v>44239</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K2" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L2" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44181</v>
+        <v>44239</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L3" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M3" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44181</v>
+        <v>44239</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M4" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>3250</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44204</v>
+        <v>44281</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44204</v>
+        <v>44281</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44204</v>
+        <v>44281</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1300</v>
+        <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44204</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K8" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L8" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M8" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L9" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M9" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L10" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44278</v>
+        <v>44267</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="L12" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="M12" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44278</v>
+        <v>44267</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J13" t="n">
         <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L13" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M13" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44278</v>
+        <v>44267</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K16" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L16" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M16" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44267</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1584,13 +1584,13 @@
         <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L17" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M17" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
         <v>4000</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K22" t="n">
         <v>3000</v>
       </c>
       <c r="L22" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M22" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L23" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44194</v>
+        <v>44249</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K24" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="L24" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="M24" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44174</v>
+        <v>44455</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2157,29 +2157,29 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M25" t="n">
-        <v>3750</v>
+        <v>1100</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3750</v>
+        <v>1100</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44174</v>
+        <v>44266</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2225,20 +2225,20 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K26" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L26" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M26" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L27" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M27" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K28" t="n">
         <v>2500</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K29" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L29" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M29" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44202</v>
+        <v>44266</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K30" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L30" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M30" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44473</v>
+        <v>44279</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2585,33 +2585,33 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L31" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M31" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44258</v>
+        <v>44279</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44258</v>
+        <v>44279</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L33" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M33" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2801,33 +2801,33 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="K34" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="L34" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="M34" t="n">
-        <v>845</v>
+        <v>2700</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>845</v>
+        <v>2700</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44459</v>
+        <v>44251</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -2873,33 +2873,33 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L35" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M35" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44176</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="K36" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L36" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M36" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44224</v>
+        <v>44176</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K37" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L37" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M37" t="n">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44224</v>
+        <v>44208</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K38" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L38" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M38" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44224</v>
+        <v>44208</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K39" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L39" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M39" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44272</v>
+        <v>44208</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="K40" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L40" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M40" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44272</v>
+        <v>44208</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K41" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L41" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M41" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3327,11 +3327,11 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44272</v>
+        <v>44237</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K42" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L42" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="M42" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K43" t="n">
         <v>2800</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K44" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L44" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M44" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K45" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L45" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M45" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44271</v>
+        <v>44253</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K46" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L46" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M46" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44271</v>
+        <v>44459</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3737,33 +3737,33 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="K47" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="L47" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="M47" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3809,20 +3809,20 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="L48" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="M48" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K49" t="n">
         <v>3000</v>
       </c>
       <c r="L49" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M49" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J50" t="n">
         <v>160</v>
       </c>
       <c r="K50" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L50" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M50" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44238</v>
+        <v>44194</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K51" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="L51" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="M51" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44469</v>
+        <v>44196</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4101,29 +4101,29 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K52" t="n">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="L52" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M52" t="n">
-        <v>900</v>
+        <v>3350</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>900</v>
+        <v>3350</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44469</v>
+        <v>44196</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4173,29 +4173,29 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K53" t="n">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="L53" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="M53" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44299</v>
+        <v>44196</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L54" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M54" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44284</v>
+        <v>44299</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K55" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L55" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M55" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44284</v>
+        <v>44167</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4389,29 +4389,29 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>160</v>
+        <v>550</v>
       </c>
       <c r="K56" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="L56" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="M56" t="n">
-        <v>2000</v>
+        <v>555</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>2000</v>
+        <v>555</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44284</v>
+        <v>44217</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K57" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="L57" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M57" t="n">
-        <v>1600</v>
+        <v>2820</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1600</v>
+        <v>2820</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K58" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L58" t="n">
         <v>2500</v>
       </c>
-      <c r="L58" t="n">
-        <v>3000</v>
-      </c>
       <c r="M58" t="n">
-        <v>2688</v>
+        <v>2338</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2688</v>
+        <v>2338</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K59" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L59" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M59" t="n">
-        <v>2091</v>
+        <v>1612</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2091</v>
+        <v>1612</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44216</v>
+        <v>44238</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K60" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L60" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M60" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44253</v>
+        <v>44260</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K61" t="n">
         <v>2800</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44253</v>
+        <v>44260</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K62" t="n">
         <v>2500</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44253</v>
+        <v>44260</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K63" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L63" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="M63" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44253</v>
+        <v>44260</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K64" t="n">
         <v>3000</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5040,13 +5040,13 @@
         <v>340</v>
       </c>
       <c r="K65" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L65" t="n">
         <v>2800</v>
       </c>
       <c r="M65" t="n">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="K66" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L66" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M66" t="n">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44245</v>
+        <v>44272</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5184,13 +5184,13 @@
         <v>250</v>
       </c>
       <c r="K67" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L67" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="M67" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44245</v>
+        <v>44210</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5249,11 +5249,11 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="K68" t="n">
         <v>3000</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44250</v>
+        <v>44210</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K69" t="n">
         <v>2500</v>
       </c>
       <c r="L69" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M69" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2650</v>
+        <v>2500</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44250</v>
+        <v>44210</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K70" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L70" t="n">
         <v>2000</v>
       </c>
-      <c r="L70" t="n">
-        <v>2400</v>
-      </c>
       <c r="M70" t="n">
-        <v>2200</v>
+        <v>1889</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2200</v>
+        <v>1889</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44250</v>
+        <v>44210</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K71" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L71" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M71" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44281</v>
+        <v>44257</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K72" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L72" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M72" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44281</v>
+        <v>44257</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5616,13 +5616,13 @@
         <v>250</v>
       </c>
       <c r="K73" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L73" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M73" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44281</v>
+        <v>44257</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K74" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L74" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M74" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44452</v>
+        <v>44200</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5753,33 +5753,33 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K75" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L75" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M75" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44223</v>
+        <v>44200</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K76" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L76" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M76" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5847,11 +5847,11 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44223</v>
+        <v>44200</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K77" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L77" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M77" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K78" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L78" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M78" t="n">
-        <v>2367</v>
+        <v>2700</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2367</v>
+        <v>2700</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>1200</v>
+        <v>430</v>
       </c>
       <c r="K79" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="L79" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M79" t="n">
-        <v>2325</v>
+        <v>2250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2325</v>
+        <v>2250</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K80" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L80" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="M80" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44223</v>
+        <v>44246</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K81" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L81" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M81" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44246</v>
+        <v>44175</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K82" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L82" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M82" t="n">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44246</v>
+        <v>44175</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K83" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L83" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M83" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2250</v>
+        <v>3000</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44246</v>
+        <v>44278</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>250</v>
       </c>
       <c r="K84" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L84" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M84" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44246</v>
+        <v>44278</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K85" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L85" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M85" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44161</v>
+        <v>44278</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>480</v>
+        <v>340</v>
       </c>
       <c r="K86" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L86" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M86" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="K87" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="L87" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="M87" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K88" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L88" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M88" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K89" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="L89" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="M89" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44200</v>
+        <v>44245</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K90" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L90" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M90" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4000</v>
+        <v>2650</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44200</v>
+        <v>44245</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K91" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L91" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="M91" t="n">
-        <v>3650</v>
+        <v>2250</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3650</v>
+        <v>2250</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44200</v>
+        <v>44245</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K92" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="L92" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M92" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44208</v>
+        <v>44245</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7049,11 +7049,11 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K93" t="n">
         <v>3000</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44208</v>
+        <v>44216</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K94" t="n">
         <v>2500</v>
       </c>
       <c r="L94" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M94" t="n">
-        <v>2500</v>
+        <v>2688</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2500</v>
+        <v>2688</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44208</v>
+        <v>44216</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K95" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L95" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M95" t="n">
-        <v>1889</v>
+        <v>2091</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1889</v>
+        <v>2091</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44208</v>
+        <v>44216</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K96" t="n">
         <v>3500</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44214</v>
+        <v>44284</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K97" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L97" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M97" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44214</v>
+        <v>44284</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K98" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L98" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M98" t="n">
-        <v>2388</v>
+        <v>2000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2388</v>
+        <v>2000</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44214</v>
+        <v>44284</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K99" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L99" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M99" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K100" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L100" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M100" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44285</v>
+        <v>44174</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K101" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L101" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M101" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44285</v>
+        <v>44244</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>340</v>
       </c>
       <c r="K102" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L102" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M102" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44285</v>
+        <v>44244</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K103" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L103" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M103" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44285</v>
+        <v>44244</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K104" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L104" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M104" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44167</v>
+        <v>44244</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,33 +7913,33 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>550</v>
+        <v>160</v>
       </c>
       <c r="K105" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="L105" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M105" t="n">
-        <v>555</v>
+        <v>3000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>555</v>
+        <v>3000</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44210</v>
+        <v>44271</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K106" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L106" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M106" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44210</v>
+        <v>44271</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>1100</v>
+        <v>340</v>
       </c>
       <c r="K107" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L107" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M107" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44210</v>
+        <v>44271</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="K108" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L108" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M108" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44210</v>
+        <v>44271</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="K109" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L109" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M109" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44217</v>
+        <v>44271</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="K110" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="L110" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M110" t="n">
-        <v>2820</v>
+        <v>2100</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2820</v>
+        <v>2100</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44217</v>
+        <v>44271</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="K111" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="L111" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M111" t="n">
-        <v>2338</v>
+        <v>2100</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2338</v>
+        <v>2100</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44217</v>
+        <v>44271</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K112" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L112" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M112" t="n">
-        <v>1612</v>
+        <v>3000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1612</v>
+        <v>3000</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44266</v>
+        <v>44271</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K113" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L113" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M113" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44266</v>
+        <v>44463</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,33 +8561,33 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
         <v>250</v>
       </c>
       <c r="K114" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L114" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M114" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44266</v>
+        <v>44463</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,33 +8633,33 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K115" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L115" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M115" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L116" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M116" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K117" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L117" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M117" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44455</v>
+        <v>44265</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,29 +8853,29 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K118" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L118" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M118" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44165</v>
+        <v>44265</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,29 +8925,29 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K119" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="M119" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44172</v>
+        <v>44224</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="K120" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L120" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M120" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44172</v>
+        <v>44224</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K121" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L121" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M121" t="n">
-        <v>3250</v>
+        <v>2400</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3250</v>
+        <v>2400</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44466</v>
+        <v>44224</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,33 +9137,33 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>97</v>
+        <v>900</v>
       </c>
       <c r="K122" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L122" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M122" t="n">
-        <v>1000</v>
+        <v>1889</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1000</v>
+        <v>1889</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44249</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K123" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L123" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M123" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9504,13 +9504,13 @@
         <v>340</v>
       </c>
       <c r="K127" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L127" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M127" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44201</v>
+        <v>44264</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L128" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M128" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44201</v>
+        <v>44294</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K129" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L129" t="n">
         <v>3000</v>
       </c>
       <c r="M129" t="n">
-        <v>2931</v>
+        <v>3000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2931</v>
+        <v>3000</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44201</v>
+        <v>44294</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K130" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L130" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M130" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44201</v>
+        <v>44294</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K131" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L131" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M131" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44280</v>
+        <v>44473</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,33 +9857,33 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L132" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M132" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9936,13 +9936,13 @@
         <v>250</v>
       </c>
       <c r="K133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L134" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M134" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10080,13 +10080,13 @@
         <v>340</v>
       </c>
       <c r="K135" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L135" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M135" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K136" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L136" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M136" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44280</v>
+        <v>44273</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10224,13 +10224,13 @@
         <v>160</v>
       </c>
       <c r="K137" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="L137" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="M137" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44260</v>
+        <v>44273</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
         <v>250</v>
       </c>
       <c r="K138" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L138" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M138" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44260</v>
+        <v>44469</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K139" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L139" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M139" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44260</v>
+        <v>44469</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,29 +10437,29 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K140" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M140" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44260</v>
+        <v>44168</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K141" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L141" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M141" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44267</v>
+        <v>44168</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K142" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L142" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M142" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44267</v>
+        <v>44168</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K143" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L143" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M143" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44267</v>
+        <v>44292</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K144" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L144" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M144" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44267</v>
+        <v>44292</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K145" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L145" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M145" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44267</v>
+        <v>44292</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K146" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L146" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M146" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44267</v>
+        <v>44161</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="K147" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="L147" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="M147" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44187</v>
+        <v>44214</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44187</v>
+        <v>44214</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K149" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L149" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M149" t="n">
-        <v>2925</v>
+        <v>2388</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2925</v>
+        <v>2388</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44187</v>
+        <v>44214</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K150" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L150" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M150" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44264</v>
+        <v>44280</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44264</v>
+        <v>44280</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11304,13 +11304,13 @@
         <v>250</v>
       </c>
       <c r="K152" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L152" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M152" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44264</v>
+        <v>44280</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K153" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L153" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M153" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44264</v>
+        <v>44280</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11448,13 +11448,13 @@
         <v>340</v>
       </c>
       <c r="K154" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L154" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M154" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44264</v>
+        <v>44280</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11520,13 +11520,13 @@
         <v>160</v>
       </c>
       <c r="K155" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="L155" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M155" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44463</v>
+        <v>44280</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,33 +11585,33 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44463</v>
+        <v>44274</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,33 +11657,33 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K157" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L157" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M157" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44196</v>
+        <v>44274</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K158" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L158" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M158" t="n">
-        <v>3350</v>
+        <v>2500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3350</v>
+        <v>2500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44196</v>
+        <v>44274</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L159" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M159" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44196</v>
+        <v>44165</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,33 +11873,33 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K160" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="L160" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L161" t="n">
         <v>2800</v>
       </c>
       <c r="M161" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44251</v>
+        <v>44258</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
         <v>3000</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44243</v>
+        <v>44474</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,33 +12089,33 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K163" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="L163" t="n">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="M163" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K164" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L164" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M164" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44243</v>
+        <v>44252</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K166" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L166" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M166" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>1100</v>
       </c>
       <c r="K168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,33 +12521,33 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="K169" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L169" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M169" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44168</v>
+        <v>44204</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,11 +12593,11 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K170" t="n">
         <v>4000</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44168</v>
+        <v>44243</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K171" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L171" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M171" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44168</v>
+        <v>44243</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K172" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L172" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M172" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44279</v>
+        <v>44243</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L173" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M173" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44279</v>
+        <v>44452</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L174" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M174" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44279</v>
+        <v>44202</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="K175" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L175" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M175" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44273</v>
+        <v>44202</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K176" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L176" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M176" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44273</v>
+        <v>44202</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="K177" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L177" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M177" t="n">
-        <v>2800</v>
+        <v>1920</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2800</v>
+        <v>1920</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44273</v>
+        <v>44202</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K178" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L178" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M178" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44273</v>
+        <v>44159</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="K179" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L179" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="M179" t="n">
-        <v>2500</v>
+        <v>845</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2500</v>
+        <v>845</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44273</v>
+        <v>44166</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,33 +13313,33 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K180" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="L180" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="M180" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44273</v>
+        <v>44172</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K181" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="L181" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="M181" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44474</v>
+        <v>44172</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,33 +13457,33 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K182" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L182" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M182" t="n">
-        <v>900</v>
+        <v>3250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>900</v>
+        <v>3250</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44286</v>
+        <v>44223</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K183" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M183" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44286</v>
+        <v>44223</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K184" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L184" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M184" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44286</v>
+        <v>44223</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>340</v>
+        <v>900</v>
       </c>
       <c r="K185" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L185" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M185" t="n">
-        <v>2300</v>
+        <v>2367</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2300</v>
+        <v>2367</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44286</v>
+        <v>44223</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>430</v>
+        <v>1200</v>
       </c>
       <c r="K186" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L186" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M186" t="n">
-        <v>2400</v>
+        <v>2325</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2400</v>
+        <v>2325</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44286</v>
+        <v>44223</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K187" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L187" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M187" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44286</v>
+        <v>44223</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="K189" t="n">
         <v>3500</v>
       </c>
       <c r="L189" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M189" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="K190" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L190" t="n">
         <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>3000</v>
+        <v>2925</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3000</v>
+        <v>2925</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44257</v>
+        <v>44187</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K191" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L191" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M191" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44257</v>
+        <v>44466</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K192" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="L192" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="M192" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44257</v>
+        <v>44250</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K193" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L193" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M193" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L194" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="M194" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44244</v>
+        <v>44250</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K195" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L195" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M195" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44244</v>
+        <v>44201</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44244</v>
+        <v>44201</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>160</v>
+        <v>650</v>
       </c>
       <c r="K197" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L197" t="n">
         <v>3000</v>
       </c>
       <c r="M197" t="n">
-        <v>3000</v>
+        <v>2931</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3000</v>
+        <v>2931</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44176</v>
+        <v>44201</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="K198" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L198" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M198" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44176</v>
+        <v>44201</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L199" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M199" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44239</v>
+        <v>44286</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L200" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M200" t="n">
-        <v>2650</v>
+        <v>2600</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2650</v>
+        <v>2600</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44239</v>
+        <v>44286</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K201" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L201" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M201" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44239</v>
+        <v>44286</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K202" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L202" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M202" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44292</v>
+        <v>44286</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K203" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L203" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M203" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44292</v>
+        <v>44286</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K204" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L204" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M204" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44292</v>
+        <v>44286</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K205" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L205" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M205" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R205"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44172</v>
+        <v>44476</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,29 +13389,29 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L181" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M181" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K182" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L182" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M182" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K183" t="n">
         <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M183" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K184" t="n">
         <v>3000</v>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K185" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K186" t="n">
         <v>2200</v>
@@ -13758,7 +13758,7 @@
         <v>2500</v>
       </c>
       <c r="M186" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K187" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L187" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M187" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
         <v>3500</v>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,11 +13961,11 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K189" t="n">
         <v>3500</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K190" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L190" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M190" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K191" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L191" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M191" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,33 +14177,33 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L192" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M192" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,33 +14249,33 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K193" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L193" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M193" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K194" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L194" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M194" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L195" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M195" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K196" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L196" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M196" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K197" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L197" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M197" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K198" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L198" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M198" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K199" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L199" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M199" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K200" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L200" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M200" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14832,13 +14832,13 @@
         <v>160</v>
       </c>
       <c r="K201" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L201" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M201" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L202" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M202" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K203" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L203" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M203" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K204" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L204" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M204" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K205" t="n">
         <v>2000</v>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -15145,6 +15145,78 @@
         <v>1</v>
       </c>
       <c r="R205" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>9</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>250</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>1</v>
+      </c>
+      <c r="R206" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R206"/>
+  <dimension ref="A1:R207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8568,13 +8568,13 @@
         <v>250</v>
       </c>
       <c r="K114" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L114" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="M114" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K115" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L115" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M115" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,33 +8705,33 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
         <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L116" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M116" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
         <v>2800</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P117" t="n">
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
         <v>250</v>
       </c>
       <c r="K118" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L118" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M118" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K119" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L119" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M119" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K120" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L120" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M120" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="K121" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L121" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M121" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K122" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L122" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M122" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K123" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L123" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M123" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K124" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L124" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M124" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K125" t="n">
         <v>2800</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J126" t="n">
         <v>250</v>
       </c>
       <c r="K126" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L126" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M126" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K127" t="n">
         <v>2500</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K128" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L128" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M128" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44294</v>
+        <v>44264</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K129" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L129" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M129" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K130" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L130" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M130" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K131" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L131" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M131" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,33 +9857,33 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
         <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L132" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M132" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,33 +9929,33 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L133" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M133" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K134" t="n">
         <v>2800</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K137" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L137" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M137" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L138" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M138" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,33 +10361,33 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
         <v>250</v>
       </c>
       <c r="K139" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="L139" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="M139" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L140" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M140" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,33 +10505,33 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K141" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="L141" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="M141" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L142" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M142" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K143" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L143" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M143" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K144" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L144" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M144" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K145" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L145" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M145" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K146" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L146" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M146" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="K147" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L147" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M147" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K148" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L148" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M148" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K149" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L149" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M149" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K150" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L150" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M150" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J151" t="n">
         <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L151" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M151" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K153" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L153" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M153" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11448,13 +11448,13 @@
         <v>340</v>
       </c>
       <c r="K154" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L154" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M154" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K155" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L155" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M155" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11592,13 +11592,13 @@
         <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L156" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M156" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L157" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M157" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,33 +11873,33 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="L160" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="M160" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,33 +11945,33 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K161" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="L161" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,33 +12089,33 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K163" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L163" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M163" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,33 +12161,33 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K164" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L164" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M164" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K165" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L165" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M165" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L166" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M166" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,11 +12377,11 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K167" t="n">
         <v>3000</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K168" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L168" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M168" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K169" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L169" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M169" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="K170" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L170" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M170" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K171" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L171" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M171" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K172" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L172" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M172" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K173" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L173" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M173" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,33 +12881,33 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L174" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M174" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,33 +12953,33 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L175" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M175" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K176" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L176" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M176" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K177" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L177" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M177" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K178" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L178" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M178" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,33 +13241,33 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K179" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L179" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="M179" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K180" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L180" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M180" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K181" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L181" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M181" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44172</v>
+        <v>44476</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L182" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M182" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K183" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L183" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M183" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K184" t="n">
         <v>3000</v>
       </c>
       <c r="L184" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M184" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K185" t="n">
         <v>3000</v>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K186" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M186" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K187" t="n">
         <v>2200</v>
@@ -13830,7 +13830,7 @@
         <v>2500</v>
       </c>
       <c r="M187" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K188" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L188" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M188" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K189" t="n">
         <v>3500</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,11 +14033,11 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K190" t="n">
         <v>3500</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K191" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L191" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M191" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K192" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L192" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M192" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,33 +14249,33 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K193" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L193" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M193" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,33 +14321,33 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K194" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L194" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M194" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K195" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L195" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M195" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L196" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M196" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K197" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L197" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M197" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K198" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L198" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M198" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K199" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L199" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M199" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K200" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L200" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M200" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K201" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L201" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M201" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14904,13 +14904,13 @@
         <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L202" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M202" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L203" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M203" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K204" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L204" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M204" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15189,7 +15189,7 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K206" t="n">
         <v>2000</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
@@ -15217,6 +15217,78 @@
         <v>1</v>
       </c>
       <c r="R206" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>9</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E207" t="n">
+        <v>13</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>250</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>1</v>
+      </c>
+      <c r="R207" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R207"/>
+  <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,33 +9713,33 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
         <v>250</v>
       </c>
       <c r="K130" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L130" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M130" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K132" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L132" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M132" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,33 +9929,33 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
         <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L133" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M133" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,33 +10001,33 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L134" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M134" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K135" t="n">
         <v>2800</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K138" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L138" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M138" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K139" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L139" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M139" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,33 +10433,33 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J140" t="n">
         <v>250</v>
       </c>
       <c r="K140" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="L140" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="M140" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K141" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L141" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M141" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,33 +10577,33 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K142" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="L142" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="M142" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K143" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L143" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M143" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K144" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L144" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M144" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K145" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L145" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M145" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L146" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M146" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="K148" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L148" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M148" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K149" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L149" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M149" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K150" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L150" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M150" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K151" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L151" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M151" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J152" t="n">
         <v>250</v>
       </c>
       <c r="K152" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L152" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M152" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K154" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L154" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M154" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11520,13 +11520,13 @@
         <v>340</v>
       </c>
       <c r="K155" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L155" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M155" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K156" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L156" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M156" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11664,13 +11664,13 @@
         <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L157" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M157" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K158" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L158" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M158" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K160" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L160" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M160" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,33 +11945,33 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K161" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="L161" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="M161" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,33 +12017,33 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K162" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="L162" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="M162" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K163" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L163" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M163" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,33 +12161,33 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L164" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M164" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,33 +12233,33 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L165" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M165" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,11 +12449,11 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
         <v>3000</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K169" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L169" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M169" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="K171" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L171" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M171" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K172" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L172" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M172" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K173" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L173" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M173" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K174" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L174" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M174" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,33 +12953,33 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J175" t="n">
         <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L175" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M175" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,33 +13025,33 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L176" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M176" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K177" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L177" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M177" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K178" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L178" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M178" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K179" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L179" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M179" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,33 +13313,33 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L180" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="M180" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K182" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L182" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M182" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44172</v>
+        <v>44476</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L183" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M183" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K184" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L184" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M184" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K185" t="n">
         <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M185" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13749,7 +13749,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K186" t="n">
         <v>3000</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K187" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L187" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M187" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K188" t="n">
         <v>2200</v>
@@ -13902,7 +13902,7 @@
         <v>2500</v>
       </c>
       <c r="M188" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K189" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L189" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M189" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K190" t="n">
         <v>3500</v>
@@ -14055,7 +14055,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,11 +14105,11 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K191" t="n">
         <v>3500</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K192" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L192" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M192" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K193" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L193" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M193" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,33 +14321,33 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L194" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M194" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,33 +14393,33 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K195" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L195" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M195" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K196" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L196" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M196" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L197" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M197" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K198" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L198" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M198" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K199" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L199" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M199" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K200" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L200" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M200" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K201" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L201" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M201" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K202" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L202" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M202" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14976,13 +14976,13 @@
         <v>160</v>
       </c>
       <c r="K203" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L203" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M203" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K204" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L204" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M204" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K205" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L205" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M205" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K207" t="n">
         <v>2000</v>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
@@ -15289,6 +15289,78 @@
         <v>1</v>
       </c>
       <c r="R207" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>9</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>250</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>1</v>
+      </c>
+      <c r="R208" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,33 +10649,33 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K143" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L143" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M143" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L144" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M144" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K145" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L145" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M145" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K146" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L146" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M146" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K147" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L147" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M147" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="K149" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L149" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M149" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K150" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L150" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K151" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L151" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M151" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K152" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L152" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M152" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J153" t="n">
         <v>250</v>
       </c>
       <c r="K153" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L153" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M153" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K155" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L155" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M155" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11592,13 +11592,13 @@
         <v>340</v>
       </c>
       <c r="K156" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L156" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M156" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K157" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L157" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M157" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11736,13 +11736,13 @@
         <v>160</v>
       </c>
       <c r="K158" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L158" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M158" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L159" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M159" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L161" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M161" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,33 +12017,33 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="L162" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="M162" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,33 +12089,33 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K163" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="L163" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="M163" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K164" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L164" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M164" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,33 +12233,33 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K165" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L165" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M165" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,33 +12305,33 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K166" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L166" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M166" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K167" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L167" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M167" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,11 +12521,11 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
         <v>3000</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K171" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L171" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M171" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="K172" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L172" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M172" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K173" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L173" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M173" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K174" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L174" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M174" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K175" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L175" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M175" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,33 +13025,33 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>160</v>
       </c>
       <c r="K176" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L176" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M176" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,33 +13097,33 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L177" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M177" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K178" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L178" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M178" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K179" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L179" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M179" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K180" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L180" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M180" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,33 +13385,33 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L181" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="M181" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K182" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L182" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M182" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K183" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L183" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44172</v>
+        <v>44476</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,29 +13605,29 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L184" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M184" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K185" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L185" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M185" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K186" t="n">
         <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M186" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
         <v>3000</v>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K188" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M188" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K189" t="n">
         <v>2200</v>
@@ -13974,7 +13974,7 @@
         <v>2500</v>
       </c>
       <c r="M189" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K190" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L190" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M190" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K191" t="n">
         <v>3500</v>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,11 +14177,11 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K192" t="n">
         <v>3500</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K193" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L193" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M193" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K194" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L194" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M194" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,33 +14393,33 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K195" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L195" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M195" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,33 +14465,33 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K196" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L196" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M196" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L197" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M197" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K198" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L198" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M198" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K199" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L199" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M199" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K200" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L200" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M200" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K201" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L201" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M201" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K202" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L202" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M202" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K203" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L203" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M203" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15048,13 +15048,13 @@
         <v>160</v>
       </c>
       <c r="K204" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L204" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M204" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K205" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L205" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M205" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K206" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L206" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M206" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K207" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L207" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M207" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K208" t="n">
         <v>2000</v>
@@ -15351,7 +15351,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
@@ -15361,6 +15361,78 @@
         <v>1</v>
       </c>
       <c r="R208" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>9</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E209" t="n">
+        <v>13</v>
+      </c>
+      <c r="F209" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>250</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>1</v>
+      </c>
+      <c r="R209" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R209"/>
+  <dimension ref="A1:R210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44176</v>
+        <v>44490</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -2949,29 +2949,29 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K36" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L36" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M36" t="n">
-        <v>3750</v>
+        <v>900</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3750</v>
+        <v>900</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K37" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L37" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M37" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3100</v>
+        <v>3750</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44208</v>
+        <v>44176</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K38" t="n">
         <v>3000</v>
       </c>
       <c r="L38" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M38" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3161,20 +3161,20 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K39" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L39" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M39" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="K40" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L40" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M40" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K41" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L41" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M41" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44237</v>
+        <v>44208</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="K42" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L42" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M42" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44253</v>
+        <v>44237</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3456,13 +3456,13 @@
         <v>340</v>
       </c>
       <c r="K43" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L43" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M43" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3593,20 +3593,20 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>250</v>
       </c>
       <c r="K46" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L46" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M46" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44459</v>
+        <v>44253</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3737,33 +3737,33 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="K47" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L47" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M47" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44194</v>
+        <v>44459</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3809,33 +3809,33 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="K48" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L48" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M48" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L49" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M49" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3953,20 +3953,20 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K50" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L50" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M50" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2650</v>
+        <v>3250</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K51" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="L51" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="M51" t="n">
-        <v>4500</v>
+        <v>2650</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>4500</v>
+        <v>2650</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K52" t="n">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="L52" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="M52" t="n">
-        <v>3350</v>
+        <v>4500</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3350</v>
+        <v>4500</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K53" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="L53" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M53" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2800</v>
+        <v>3350</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K54" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L54" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M54" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44299</v>
+        <v>44196</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L55" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M55" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44167</v>
+        <v>44299</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4389,29 +4389,29 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K56" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="L56" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="M56" t="n">
-        <v>555</v>
+        <v>2900</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>555</v>
+        <v>2900</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44217</v>
+        <v>44167</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4457,33 +4457,33 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
+        <v>550</v>
+      </c>
+      <c r="K57" t="n">
         <v>500</v>
       </c>
-      <c r="K57" t="n">
-        <v>2700</v>
-      </c>
       <c r="L57" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M57" t="n">
-        <v>2820</v>
+        <v>555</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2820</v>
+        <v>555</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K58" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L58" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M58" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K59" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L59" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M59" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44238</v>
+        <v>44217</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,20 +4673,20 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K60" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L60" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M60" t="n">
-        <v>3000</v>
+        <v>1612</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3000</v>
+        <v>1612</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44260</v>
+        <v>44238</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K61" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L61" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M61" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K62" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L62" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M62" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K63" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L63" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M63" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K64" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L64" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M64" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K65" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L65" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M65" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K66" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L66" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M66" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K67" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L67" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M67" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K68" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L68" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M68" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="K70" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L70" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M70" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K71" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L71" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M71" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K72" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L72" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M72" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K73" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L73" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M73" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K74" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L74" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M74" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>520</v>
+        <v>70</v>
       </c>
       <c r="K75" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L75" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M75" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K76" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L76" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M76" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K77" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L77" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M77" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K78" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="L78" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M78" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K79" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L79" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M79" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K80" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L80" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M80" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44175</v>
+        <v>44246</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K82" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L82" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M82" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K83" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L83" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M83" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44278</v>
+        <v>44175</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>250</v>
       </c>
       <c r="K84" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L84" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M84" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6480,13 +6480,13 @@
         <v>250</v>
       </c>
       <c r="K85" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L85" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M85" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K86" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L86" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M86" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K87" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L87" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M87" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K88" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L88" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M88" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K89" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L89" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M89" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44245</v>
+        <v>44278</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K90" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L90" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M90" t="n">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2650</v>
+        <v>1700</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K91" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L91" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M91" t="n">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2250</v>
+        <v>2650</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K92" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L92" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M92" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K93" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L93" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M93" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="K94" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L94" t="n">
         <v>3000</v>
       </c>
       <c r="M94" t="n">
-        <v>2688</v>
+        <v>3000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2688</v>
+        <v>3000</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="K95" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L95" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M95" t="n">
-        <v>2091</v>
+        <v>2688</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2091</v>
+        <v>2688</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="K96" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L96" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M96" t="n">
-        <v>3500</v>
+        <v>2091</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3500</v>
+        <v>2091</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="K97" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L97" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M97" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K98" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L98" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M98" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K99" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L99" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M99" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
       <c r="K100" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L100" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M100" t="n">
-        <v>3750</v>
+        <v>1600</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3750</v>
+        <v>1600</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K101" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L101" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M101" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J102" t="n">
         <v>340</v>
       </c>
       <c r="K102" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L102" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M102" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K103" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L103" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M103" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K104" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L104" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M104" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K105" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L105" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M105" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K106" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L106" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M106" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8061,7 +8061,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K107" t="n">
         <v>2800</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J108" t="n">
         <v>340</v>
       </c>
       <c r="K108" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L108" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M108" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K109" t="n">
         <v>2500</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K110" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L110" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M110" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K111" t="n">
         <v>2100</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K112" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L112" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M112" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44483</v>
+        <v>44271</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,33 +8561,33 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K114" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L114" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="M114" t="n">
-        <v>850</v>
+        <v>3000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>850</v>
+        <v>3000</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8640,13 +8640,13 @@
         <v>250</v>
       </c>
       <c r="K115" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L115" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="M115" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1200</v>
+        <v>850</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K116" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L116" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M116" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,33 +8777,33 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
         <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L117" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M117" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K118" t="n">
         <v>2800</v>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P118" t="n">
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
         <v>250</v>
       </c>
       <c r="K119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K120" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L120" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M120" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="K121" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L121" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M121" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="K122" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L122" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M122" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K123" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L123" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M123" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1889</v>
+        <v>2400</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K124" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L124" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M124" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3500</v>
+        <v>1889</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K125" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L125" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M125" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K126" t="n">
         <v>2800</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
         <v>250</v>
       </c>
       <c r="K127" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L127" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M127" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9573,7 +9573,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K128" t="n">
         <v>2500</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K129" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L129" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M129" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44484</v>
+        <v>44264</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9713,33 +9713,33 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K130" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="L130" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="M130" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,33 +9785,33 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
         <v>250</v>
       </c>
       <c r="K131" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L131" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M131" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K132" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L132" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M132" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10001,33 +10001,33 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J134" t="n">
         <v>160</v>
       </c>
       <c r="K134" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L134" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M134" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,33 +10073,33 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L135" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M135" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10149,7 +10149,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K136" t="n">
         <v>2800</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K137" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L137" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M137" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K139" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L139" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M139" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L140" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M140" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10505,33 +10505,33 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>250</v>
       </c>
       <c r="K141" t="n">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="L141" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="M141" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M142" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K143" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L143" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M143" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,33 +10721,33 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K144" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L144" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M144" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K145" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L145" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M145" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K146" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L146" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M146" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K147" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L147" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M147" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K148" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L148" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M148" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="K150" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L150" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M150" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K151" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L151" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M151" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K152" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L152" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M152" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2388</v>
+        <v>3000</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K153" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L153" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M153" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3500</v>
+        <v>2388</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J154" t="n">
         <v>250</v>
       </c>
       <c r="K154" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L154" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M154" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K156" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L156" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M156" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11664,13 +11664,13 @@
         <v>340</v>
       </c>
       <c r="K157" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L157" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M157" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K158" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L158" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M158" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11808,13 +11808,13 @@
         <v>160</v>
       </c>
       <c r="K159" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L159" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M159" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K160" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L160" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M160" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K161" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L161" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M161" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K162" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L162" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M162" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,33 +12089,33 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="L163" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="M163" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,33 +12161,33 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K164" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="L164" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="M164" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,33 +12305,33 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K166" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L166" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M166" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,33 +12377,33 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L167" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M167" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K168" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L168" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M168" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L169" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M169" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12593,11 +12593,11 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K170" t="n">
         <v>3000</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K171" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L171" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M171" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K172" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L172" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M172" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="K173" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L173" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M173" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K174" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L174" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M174" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K175" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L175" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M175" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K176" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L176" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M176" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,33 +13097,33 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J177" t="n">
         <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L177" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M177" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13169,33 +13169,33 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K178" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L178" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M178" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>600</v>
+        <v>320</v>
       </c>
       <c r="K179" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L179" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M179" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K180" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L180" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M180" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1920</v>
+        <v>2500</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K181" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L181" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M181" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3500</v>
+        <v>1920</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,33 +13457,33 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L182" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="M182" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>845</v>
+        <v>3500</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K183" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L183" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M183" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K184" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L184" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M184" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44172</v>
+        <v>44476</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L185" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M185" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K186" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L186" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M186" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K187" t="n">
         <v>3000</v>
       </c>
       <c r="L187" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M187" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K188" t="n">
         <v>3000</v>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K189" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14037,7 +14037,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K190" t="n">
         <v>2200</v>
@@ -14046,7 +14046,7 @@
         <v>2500</v>
       </c>
       <c r="M190" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K191" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L191" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M191" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14181,7 +14181,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K192" t="n">
         <v>3500</v>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,11 +14249,11 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K193" t="n">
         <v>3500</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K194" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L194" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M194" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K195" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L195" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M195" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,33 +14465,33 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K196" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L196" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M196" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,33 +14537,33 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K197" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L197" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M197" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K198" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L198" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M198" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L199" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M199" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K200" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L200" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M200" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K201" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L201" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M201" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K202" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L202" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M202" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K203" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L203" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M203" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K204" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L204" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M204" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15120,13 +15120,13 @@
         <v>160</v>
       </c>
       <c r="K205" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L205" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M205" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K206" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L206" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M206" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K207" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L207" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M207" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K208" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L208" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M208" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K209" t="n">
         <v>2000</v>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
@@ -15433,6 +15433,78 @@
         <v>1</v>
       </c>
       <c r="R209" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>9</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E210" t="n">
+        <v>13</v>
+      </c>
+      <c r="F210" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>250</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M210" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>1</v>
+      </c>
+      <c r="R210" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R210"/>
+  <dimension ref="A1:R211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L186" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="M186" t="n">
-        <v>4000</v>
+        <v>850</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4000</v>
+        <v>850</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K187" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L187" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M187" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3250</v>
+        <v>4000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K188" t="n">
         <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M188" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K189" t="n">
         <v>3000</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K190" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14109,7 +14109,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K191" t="n">
         <v>2200</v>
@@ -14118,7 +14118,7 @@
         <v>2500</v>
       </c>
       <c r="M191" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2325</v>
+        <v>2367</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K192" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L192" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M192" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K193" t="n">
         <v>3500</v>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,11 +14321,11 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="K194" t="n">
         <v>3500</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K195" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L195" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M195" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K196" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L196" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M196" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,33 +14537,33 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K197" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L197" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M197" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,33 +14609,33 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="K198" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L198" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M198" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K199" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L199" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M199" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2200</v>
+        <v>2650</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L200" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M200" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="K201" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L201" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M201" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K202" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L202" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M202" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2931</v>
+        <v>3500</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K203" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L203" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M203" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2000</v>
+        <v>2931</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K204" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L204" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M204" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K205" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L205" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M205" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15192,13 +15192,13 @@
         <v>160</v>
       </c>
       <c r="K206" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L206" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M206" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K207" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L207" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M207" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K208" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L208" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M208" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K210" t="n">
         <v>2000</v>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
@@ -15505,6 +15505,78 @@
         <v>1</v>
       </c>
       <c r="R210" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>9</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E211" t="n">
+        <v>13</v>
+      </c>
+      <c r="F211" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>250</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>1</v>
+      </c>
+      <c r="R211" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R211"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44260</v>
+        <v>44497</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,33 +4817,33 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K62" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L62" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M62" t="n">
-        <v>2800</v>
+        <v>967</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2800</v>
+        <v>967</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44260</v>
+        <v>44497</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4889,33 +4889,33 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="K63" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="L63" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="M63" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K64" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L64" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M64" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="K65" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L65" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M65" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K66" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L66" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M66" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5127,11 +5127,11 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44272</v>
+        <v>44260</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>430</v>
+        <v>70</v>
       </c>
       <c r="K67" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L67" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M67" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K68" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L68" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M68" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="K69" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L69" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M69" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44210</v>
+        <v>44272</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K70" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L70" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M70" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5465,20 +5465,20 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K71" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L71" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M71" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K72" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L72" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M72" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K73" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L73" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M73" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5681,20 +5681,20 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K74" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L74" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="M74" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K75" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L75" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M75" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5825,20 +5825,20 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K76" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="L76" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M76" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5897,20 +5897,20 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>610</v>
+        <v>70</v>
       </c>
       <c r="K77" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L77" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M77" t="n">
-        <v>3650</v>
+        <v>3000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3650</v>
+        <v>3000</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5969,20 +5969,20 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K78" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="L78" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M78" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K79" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L79" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="M79" t="n">
-        <v>2700</v>
+        <v>3650</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2700</v>
+        <v>3650</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44246</v>
+        <v>44200</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K80" t="n">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="L80" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M80" t="n">
-        <v>2250</v>
+        <v>3200</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>2250</v>
+        <v>3200</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>250</v>
       </c>
       <c r="K81" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L81" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M81" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K82" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L82" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M82" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44175</v>
+        <v>44246</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K83" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L83" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M83" t="n">
-        <v>3750</v>
+        <v>1800</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3750</v>
+        <v>1800</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44175</v>
+        <v>44246</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,11 +6401,11 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K84" t="n">
         <v>3000</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44278</v>
+        <v>44175</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K85" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L85" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M85" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44278</v>
+        <v>44175</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>250</v>
       </c>
       <c r="K86" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L86" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M86" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K87" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L87" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M87" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K88" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L88" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M88" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K89" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L89" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M89" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K90" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L90" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M90" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44245</v>
+        <v>44278</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K91" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L91" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M91" t="n">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44245</v>
+        <v>44278</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K92" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="L92" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="M92" t="n">
-        <v>2250</v>
+        <v>1700</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>2250</v>
+        <v>1700</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K93" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L93" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M93" t="n">
-        <v>1800</v>
+        <v>2650</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1800</v>
+        <v>2650</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K94" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L94" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M94" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K95" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L95" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M95" t="n">
-        <v>2688</v>
+        <v>1800</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2688</v>
+        <v>1800</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>1100</v>
+        <v>430</v>
       </c>
       <c r="K96" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L96" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M96" t="n">
-        <v>2091</v>
+        <v>3000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2091</v>
+        <v>3000</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K97" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L97" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M97" t="n">
-        <v>3500</v>
+        <v>2688</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3500</v>
+        <v>2688</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>70</v>
+        <v>1100</v>
       </c>
       <c r="K98" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L98" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M98" t="n">
-        <v>2500</v>
+        <v>2091</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2500</v>
+        <v>2091</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44284</v>
+        <v>44216</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K99" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L99" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M99" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K100" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L100" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M100" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K101" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L101" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M101" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44174</v>
+        <v>44284</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L102" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M102" t="n">
-        <v>2750</v>
+        <v>1600</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2750</v>
+        <v>1600</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K103" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L103" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M103" t="n">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2700</v>
+        <v>3750</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K104" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L104" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M104" t="n">
-        <v>2400</v>
+        <v>2750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2400</v>
+        <v>2750</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K105" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L105" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M105" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K106" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L106" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M106" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J107" t="n">
         <v>250</v>
       </c>
       <c r="K107" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L107" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M107" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44271</v>
+        <v>44244</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K108" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L108" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M108" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K109" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L109" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M109" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K111" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L111" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M111" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K112" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L112" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M112" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J113" t="n">
         <v>160</v>
       </c>
       <c r="K113" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L113" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M113" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K114" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L114" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M114" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44483</v>
+        <v>44271</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,33 +8633,33 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K115" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L115" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="M115" t="n">
-        <v>850</v>
+        <v>3000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>850</v>
+        <v>3000</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44463</v>
+        <v>44271</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,33 +8705,33 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="L116" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M116" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44463</v>
+        <v>44483</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K117" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L117" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M117" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8849,33 +8849,33 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K118" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="L118" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M118" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,33 +8921,33 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K119" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L119" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M119" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K121" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L121" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M121" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9137,20 +9137,20 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K122" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L122" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M122" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44265</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="K123" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L123" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M123" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="K124" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L124" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M124" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1889</v>
+        <v>3000</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K125" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L125" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M125" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K126" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L126" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M126" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2800</v>
+        <v>1889</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K127" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L127" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M127" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L128" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M128" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K129" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L129" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M129" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K130" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L130" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M130" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44484</v>
+        <v>44264</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K131" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L131" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M131" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44294</v>
+        <v>44264</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K132" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L132" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M132" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44294</v>
+        <v>44484</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,29 +9933,29 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K133" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L133" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M133" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K134" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L134" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M134" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44473</v>
+        <v>44294</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,29 +10077,29 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K135" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L135" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M135" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44273</v>
+        <v>44294</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L136" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M136" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10217,33 +10217,33 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
         <v>160</v>
       </c>
       <c r="K137" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L137" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="M137" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K140" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L140" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M140" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K141" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L141" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M141" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10577,33 +10577,33 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
-        <v>800</v>
+        <v>210</v>
       </c>
       <c r="L142" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="M142" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44469</v>
+        <v>44273</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K143" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="L143" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="M143" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,33 +10793,33 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="K145" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="L145" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="M145" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,29 +10869,29 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K146" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L146" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M146" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K147" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L147" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M147" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,11 +11009,11 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K148" t="n">
         <v>3000</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J149" t="n">
         <v>250</v>
       </c>
       <c r="K149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L150" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M150" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K151" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="L151" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="M151" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44214</v>
+        <v>44292</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>400</v>
+        <v>70</v>
       </c>
       <c r="K152" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L152" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M152" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
+        <v>480</v>
+      </c>
+      <c r="K153" t="n">
         <v>800</v>
       </c>
-      <c r="K153" t="n">
-        <v>2200</v>
-      </c>
       <c r="L153" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M153" t="n">
-        <v>2388</v>
+        <v>800</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>2388</v>
+        <v>800</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K154" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L154" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M154" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K155" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L155" t="n">
         <v>2500</v>
       </c>
       <c r="M155" t="n">
-        <v>2500</v>
+        <v>2388</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2500</v>
+        <v>2388</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J156" t="n">
         <v>250</v>
       </c>
       <c r="K156" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L156" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M156" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K157" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L157" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M157" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K158" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L158" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M158" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K159" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L159" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M159" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K160" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L160" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="M160" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K161" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L161" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M161" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K162" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L162" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M162" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K163" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L163" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M163" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44165</v>
+        <v>44274</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,29 +12165,29 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K164" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L164" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="M164" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44258</v>
+        <v>44274</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K165" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L165" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M165" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44258</v>
+        <v>44165</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,33 +12305,33 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K166" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L166" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M166" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44474</v>
+        <v>44258</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,33 +12377,33 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
         <v>250</v>
       </c>
       <c r="K167" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="L167" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M167" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12528,26 +12528,26 @@
         <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L169" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M169" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K170" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L170" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M170" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1100</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L172" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M172" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="K173" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L173" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M173" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>450</v>
+        <v>1100</v>
       </c>
       <c r="K174" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L174" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M174" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>340</v>
+        <v>1300</v>
       </c>
       <c r="K175" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L175" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M175" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44243</v>
+        <v>44204</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="K176" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="L176" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="M176" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K177" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L177" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M177" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K178" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L178" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="M178" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44202</v>
+        <v>44243</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,11 +13241,11 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="K179" t="n">
         <v>3000</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,29 +13317,29 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="K180" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L180" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M180" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="K181" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L181" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M181" t="n">
-        <v>1920</v>
+        <v>3000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1920</v>
+        <v>3000</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K182" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L182" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M182" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,33 +13529,33 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K183" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="L183" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="M183" t="n">
-        <v>845</v>
+        <v>1920</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>845</v>
+        <v>1920</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44166</v>
+        <v>44202</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,33 +13601,33 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="L184" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="M184" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44476</v>
+        <v>44159</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K185" t="n">
         <v>800</v>
       </c>
       <c r="L185" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M185" t="n">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44491</v>
+        <v>44166</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K186" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L186" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M186" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44172</v>
+        <v>44476</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L187" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M187" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,33 +13889,33 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L188" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="M188" t="n">
-        <v>3250</v>
+        <v>850</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3250</v>
+        <v>850</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="K190" t="n">
         <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M190" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K191" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L191" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M191" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K192" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L192" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M192" t="n">
-        <v>2325</v>
+        <v>3000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2325</v>
+        <v>3000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K193" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L193" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M193" t="n">
-        <v>3500</v>
+        <v>2367</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3500</v>
+        <v>2367</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K194" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L194" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M194" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3500</v>
+        <v>2325</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,11 +14393,11 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K195" t="n">
         <v>3500</v>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K196" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L196" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M196" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="K197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="K198" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L198" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M198" t="n">
-        <v>1000</v>
+        <v>2925</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1000</v>
+        <v>2925</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L199" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M199" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K200" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L200" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M200" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K201" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L201" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M201" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3000</v>
+        <v>2650</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L202" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M202" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="K203" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L203" t="n">
         <v>3000</v>
       </c>
       <c r="M203" t="n">
-        <v>2931</v>
+        <v>3000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2931</v>
+        <v>3000</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K204" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L204" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M204" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K205" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L205" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M205" t="n">
-        <v>4000</v>
+        <v>2931</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>4000</v>
+        <v>2931</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K206" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L206" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M206" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K207" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L207" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M207" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L208" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M208" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K209" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L209" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M209" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K210" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L210" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M210" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15545,38 +15545,182 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>430</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>1</v>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>9</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E212" t="n">
+        <v>13</v>
+      </c>
+      <c r="F212" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J211" t="n">
+      <c r="J212" t="n">
+        <v>160</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>1</v>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>9</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="E213" t="n">
+        <v>13</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
         <v>250</v>
       </c>
-      <c r="K211" t="n">
+      <c r="K213" t="n">
         <v>2000</v>
       </c>
-      <c r="L211" t="n">
+      <c r="L213" t="n">
         <v>2000</v>
       </c>
-      <c r="M211" t="n">
+      <c r="M213" t="n">
         <v>2000</v>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr">
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P211" t="n">
+      <c r="P213" t="n">
         <v>2000</v>
       </c>
-      <c r="Q211" t="n">
-        <v>1</v>
-      </c>
-      <c r="R211" t="inlineStr">
+      <c r="Q213" t="n">
+        <v>1</v>
+      </c>
+      <c r="R213" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44239</v>
+        <v>44260</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L2" t="n">
         <v>2800</v>
       </c>
       <c r="M2" t="n">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2650</v>
+        <v>2800</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44239</v>
+        <v>44260</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L3" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M3" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44239</v>
+        <v>44260</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>160</v>
       </c>
       <c r="K4" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L4" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M4" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44281</v>
+        <v>44260</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M6" t="n">
-        <v>2000</v>
+        <v>2650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>2650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>160</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M7" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44250</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K8" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L8" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M8" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44285</v>
+        <v>44253</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>340</v>
       </c>
       <c r="K9" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L9" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M9" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44285</v>
+        <v>44253</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K10" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M10" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44285</v>
+        <v>44253</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="M11" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44267</v>
+        <v>44253</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L12" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M12" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44267</v>
+        <v>44497</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,33 +1289,33 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>160</v>
+        <v>450</v>
       </c>
       <c r="K13" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="L13" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>2800</v>
+        <v>967</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2800</v>
+        <v>967</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44267</v>
+        <v>44497</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,33 +1361,33 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>340</v>
+        <v>190</v>
       </c>
       <c r="K14" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="L14" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="M14" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44267</v>
+        <v>44239</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K15" t="n">
         <v>2500</v>
       </c>
       <c r="L15" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M15" t="n">
-        <v>2500</v>
+        <v>2650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2500</v>
+        <v>2650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44267</v>
+        <v>44239</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,17 +1505,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K16" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L16" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M16" t="n">
         <v>2300</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44267</v>
+        <v>44239</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>160</v>
       </c>
       <c r="K17" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L17" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M17" t="n">
-        <v>2300</v>
+        <v>3250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2300</v>
+        <v>3250</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44259</v>
+        <v>44285</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L18" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M18" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44259</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1728,13 +1728,13 @@
         <v>340</v>
       </c>
       <c r="K19" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L19" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M19" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44259</v>
+        <v>44285</v>
       </c>
       <c r="E20" t="n">
         <v>13</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44181</v>
+        <v>44285</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="L21" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="M21" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44181</v>
+        <v>44243</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K22" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L22" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M22" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44181</v>
+        <v>44243</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="K23" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L23" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M23" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44249</v>
+        <v>44243</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
         <v>3000</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44455</v>
+        <v>44265</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2153,33 +2153,33 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L25" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M25" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L27" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M27" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
@@ -2376,13 +2376,13 @@
         <v>340</v>
       </c>
       <c r="K28" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L28" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M28" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44266</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="K29" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L29" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M29" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44266</v>
+        <v>44187</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="K30" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L30" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M30" t="n">
-        <v>2300</v>
+        <v>2925</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2300</v>
+        <v>2925</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44279</v>
+        <v>44187</v>
       </c>
       <c r="E31" t="n">
         <v>13</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44279</v>
+        <v>44267</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K32" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L32" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M32" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44279</v>
+        <v>44267</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2729,20 +2729,20 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J33" t="n">
         <v>160</v>
       </c>
       <c r="K33" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L33" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M33" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44251</v>
+        <v>44267</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J34" t="n">
         <v>340</v>
       </c>
       <c r="K34" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L34" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M34" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44251</v>
+        <v>44267</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -2873,20 +2873,20 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K35" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L35" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M35" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44490</v>
+        <v>44267</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -2945,33 +2945,33 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K36" t="n">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="L36" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="M36" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44176</v>
+        <v>44267</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3017,20 +3017,20 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L37" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M37" t="n">
-        <v>3750</v>
+        <v>2300</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3750</v>
+        <v>2300</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44176</v>
+        <v>44264</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K38" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L38" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M38" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44208</v>
+        <v>44264</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K39" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L39" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M39" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44208</v>
+        <v>44264</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="K40" t="n">
         <v>2500</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44208</v>
+        <v>44264</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3305,20 +3305,20 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="K41" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L41" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M41" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1889</v>
+        <v>2500</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44208</v>
+        <v>44264</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K42" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L42" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M42" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44237</v>
+        <v>44174</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K43" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L43" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M43" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44253</v>
+        <v>44174</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>340</v>
       </c>
       <c r="K44" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L44" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M44" t="n">
-        <v>2800</v>
+        <v>2750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2800</v>
+        <v>2750</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44253</v>
+        <v>44463</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3597,29 +3597,29 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K45" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L45" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M45" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44253</v>
+        <v>44463</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3669,29 +3669,29 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K46" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="L46" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="M46" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44253</v>
+        <v>44271</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3737,20 +3737,20 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>250</v>
       </c>
       <c r="K47" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L47" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M47" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44459</v>
+        <v>44271</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3809,33 +3809,33 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="K48" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L48" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M48" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44194</v>
+        <v>44271</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K49" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L49" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M49" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44194</v>
+        <v>44271</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K50" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L50" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M50" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3250</v>
+        <v>2500</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44194</v>
+        <v>44271</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4032,13 +4032,13 @@
         <v>160</v>
       </c>
       <c r="K51" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L51" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M51" t="n">
-        <v>2650</v>
+        <v>2100</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2650</v>
+        <v>2100</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44194</v>
+        <v>44271</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4097,20 +4097,20 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K52" t="n">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="L52" t="n">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="M52" t="n">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44196</v>
+        <v>44271</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K53" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L53" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M53" t="n">
-        <v>3350</v>
+        <v>3000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3350</v>
+        <v>3000</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44196</v>
+        <v>44271</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4241,20 +4241,20 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K54" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L54" t="n">
         <v>3000</v>
       </c>
       <c r="M54" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44196</v>
+        <v>44258</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K55" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L55" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M55" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44299</v>
+        <v>44258</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K56" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L56" t="n">
         <v>3000</v>
       </c>
       <c r="M56" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44167</v>
+        <v>44200</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4457,33 +4457,33 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="K57" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="L57" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="M57" t="n">
-        <v>555</v>
+        <v>4000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>555</v>
+        <v>4000</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44217</v>
+        <v>44200</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>500</v>
+        <v>610</v>
       </c>
       <c r="K58" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="L58" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M58" t="n">
-        <v>2820</v>
+        <v>3650</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2820</v>
+        <v>3650</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44217</v>
+        <v>44200</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="K59" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="L59" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M59" t="n">
-        <v>2338</v>
+        <v>3200</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2338</v>
+        <v>3200</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44217</v>
+        <v>44452</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,33 +4673,33 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="K60" t="n">
         <v>1500</v>
       </c>
       <c r="L60" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M60" t="n">
-        <v>1612</v>
+        <v>1500</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1612</v>
+        <v>1500</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44238</v>
+        <v>44299</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K61" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L61" t="n">
         <v>3000</v>
       </c>
       <c r="M61" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4767,11 +4767,11 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44497</v>
+        <v>44249</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,33 +4817,33 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K62" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="L62" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M62" t="n">
-        <v>967</v>
+        <v>3000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>967</v>
+        <v>3000</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44497</v>
+        <v>44257</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4889,33 +4889,33 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K63" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="L63" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="M63" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44260</v>
+        <v>44257</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
         <v>250</v>
       </c>
       <c r="K64" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L64" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M64" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44260</v>
+        <v>44257</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K65" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L65" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M65" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44260</v>
+        <v>44252</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K66" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L66" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M66" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44260</v>
+        <v>44252</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K67" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L67" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M67" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44272</v>
+        <v>44252</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K68" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L68" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M68" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5271,11 +5271,11 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44272</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5321,20 +5321,20 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5343,11 +5343,11 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44272</v>
+        <v>44223</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K70" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L70" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="M70" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K71" t="n">
         <v>3000</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K72" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L72" t="n">
         <v>2500</v>
       </c>
       <c r="M72" t="n">
-        <v>2500</v>
+        <v>2367</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2500</v>
+        <v>2367</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K73" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L73" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M73" t="n">
-        <v>1889</v>
+        <v>2325</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1889</v>
+        <v>2325</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K74" t="n">
         <v>3500</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44257</v>
+        <v>44223</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5753,20 +5753,20 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K75" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L75" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M75" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44257</v>
+        <v>44165</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,29 +5829,29 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K76" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="L76" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="M76" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44257</v>
+        <v>44167</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5897,33 +5897,33 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="K77" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="L77" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M77" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3000</v>
+        <v>555</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44200</v>
+        <v>44455</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5969,33 +5969,33 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K78" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L78" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M78" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44200</v>
+        <v>44224</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6041,20 +6041,20 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>610</v>
+        <v>450</v>
       </c>
       <c r="K79" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L79" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M79" t="n">
-        <v>3650</v>
+        <v>3000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3650</v>
+        <v>3000</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44200</v>
+        <v>44224</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="K80" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="L80" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M80" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44246</v>
+        <v>44224</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6185,20 +6185,20 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K81" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L81" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M81" t="n">
-        <v>2700</v>
+        <v>1889</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2700</v>
+        <v>1889</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44246</v>
+        <v>44224</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="K82" t="n">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="L82" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M82" t="n">
-        <v>2250</v>
+        <v>3500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2250</v>
+        <v>3500</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44246</v>
+        <v>44488</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6329,33 +6329,33 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
         <v>250</v>
       </c>
       <c r="K83" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="L83" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M83" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44246</v>
+        <v>44483</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6401,33 +6401,33 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K84" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L84" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="M84" t="n">
-        <v>3000</v>
+        <v>850</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3000</v>
+        <v>850</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44175</v>
+        <v>44259</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6473,20 +6473,20 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K85" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L85" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M85" t="n">
-        <v>3750</v>
+        <v>2800</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3750</v>
+        <v>2800</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44175</v>
+        <v>44259</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K86" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L86" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M86" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44278</v>
+        <v>44259</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K87" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L87" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M87" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44278</v>
+        <v>44251</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K88" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L88" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M88" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44278</v>
+        <v>44251</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K89" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L89" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M89" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K90" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="L90" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="M90" t="n">
-        <v>1900</v>
+        <v>3750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1900</v>
+        <v>3750</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44278</v>
+        <v>44176</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K91" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L91" t="n">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="M91" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44278</v>
+        <v>44281</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,20 +6977,20 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K92" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L92" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M92" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44245</v>
+        <v>44281</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K93" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L93" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M93" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44245</v>
+        <v>44281</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7121,20 +7121,20 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K94" t="n">
-        <v>2100</v>
+        <v>1600</v>
       </c>
       <c r="L94" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M94" t="n">
-        <v>2250</v>
+        <v>1600</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>2250</v>
+        <v>1600</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K95" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L95" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M95" t="n">
-        <v>1800</v>
+        <v>2650</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1800</v>
+        <v>2650</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="K96" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L96" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M96" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K97" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L97" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M97" t="n">
-        <v>2688</v>
+        <v>1800</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2688</v>
+        <v>1800</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44216</v>
+        <v>44245</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>1100</v>
+        <v>430</v>
       </c>
       <c r="K98" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L98" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M98" t="n">
-        <v>2091</v>
+        <v>3000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2091</v>
+        <v>3000</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44216</v>
+        <v>44210</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K99" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L99" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M99" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7553,11 +7553,11 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>70</v>
+        <v>1100</v>
       </c>
       <c r="K100" t="n">
         <v>2500</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>160</v>
+        <v>900</v>
       </c>
       <c r="K101" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L101" t="n">
         <v>2000</v>
       </c>
       <c r="M101" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2000</v>
+        <v>1889</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K102" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L102" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M102" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44174</v>
+        <v>44161</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="K103" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L103" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="M103" t="n">
-        <v>3750</v>
+        <v>800</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3750</v>
+        <v>800</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44174</v>
+        <v>44214</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K104" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L104" t="n">
         <v>3000</v>
       </c>
       <c r="M104" t="n">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2750</v>
+        <v>3000</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44244</v>
+        <v>44214</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K105" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L105" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M105" t="n">
-        <v>2700</v>
+        <v>2388</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2700</v>
+        <v>2388</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44244</v>
+        <v>44214</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K106" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="L106" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M106" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44244</v>
+        <v>44194</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="K107" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L107" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M107" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44244</v>
+        <v>44194</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K108" t="n">
         <v>3000</v>
       </c>
       <c r="L108" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M108" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3000</v>
+        <v>3250</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K109" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L109" t="n">
         <v>2800</v>
       </c>
       <c r="M109" t="n">
-        <v>2800</v>
+        <v>2650</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2800</v>
+        <v>2650</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K110" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="L110" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="M110" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44271</v>
+        <v>44459</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,29 +8349,29 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="K111" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L111" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M111" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8417,20 +8417,20 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K113" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="L113" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M113" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8561,20 +8561,20 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K114" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L114" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M114" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J116" t="n">
         <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L116" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M116" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44483</v>
+        <v>44284</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,33 +8777,33 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="K117" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L117" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="M117" t="n">
-        <v>850</v>
+        <v>2500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>850</v>
+        <v>2500</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44463</v>
+        <v>44284</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,29 +8853,29 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K118" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L118" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M118" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44463</v>
+        <v>44284</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,29 +8925,29 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K119" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L119" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M119" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44265</v>
+        <v>44238</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>160</v>
       </c>
       <c r="K120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44265</v>
+        <v>44202</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="K121" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L121" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M121" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44265</v>
+        <v>44202</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,7 +9141,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K122" t="n">
         <v>2500</v>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P122" t="n">
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44265</v>
+        <v>44202</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="K123" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L123" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M123" t="n">
-        <v>2600</v>
+        <v>1920</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2600</v>
+        <v>1920</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44224</v>
+        <v>44202</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K124" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L124" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M124" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44224</v>
+        <v>44159</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="K125" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="L125" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="M125" t="n">
-        <v>2400</v>
+        <v>845</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2400</v>
+        <v>845</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44274</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>900</v>
+        <v>70</v>
       </c>
       <c r="K126" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L126" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M126" t="n">
-        <v>1889</v>
+        <v>2800</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1889</v>
+        <v>2800</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44274</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9497,20 +9497,20 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44264</v>
+        <v>44274</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J128" t="n">
         <v>160</v>
       </c>
       <c r="K128" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L128" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="M128" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44264</v>
+        <v>44216</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K129" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L129" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M129" t="n">
-        <v>2800</v>
+        <v>2688</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2800</v>
+        <v>2688</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44264</v>
+        <v>44216</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K130" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L130" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M130" t="n">
-        <v>2500</v>
+        <v>2091</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2500</v>
+        <v>2091</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44264</v>
+        <v>44216</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K131" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L131" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M131" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44264</v>
+        <v>44172</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K132" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="L132" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="M132" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44484</v>
+        <v>44172</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9929,33 +9929,33 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K133" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L133" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M133" t="n">
-        <v>900</v>
+        <v>3250</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>900</v>
+        <v>3250</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44294</v>
+        <v>44278</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10008,13 +10008,13 @@
         <v>250</v>
       </c>
       <c r="K134" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L134" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M134" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44294</v>
+        <v>44278</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K135" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L135" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M135" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44294</v>
+        <v>44278</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K136" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L136" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M136" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44473</v>
+        <v>44278</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K137" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="L137" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="M137" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44273</v>
+        <v>44278</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K138" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L138" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M138" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44273</v>
+        <v>44278</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K139" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="L139" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M139" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
         <v>340</v>
       </c>
       <c r="K140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K141" t="n">
         <v>2500</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44273</v>
+        <v>44272</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K142" t="n">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="L142" t="n">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="M142" t="n">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44273</v>
+        <v>44474</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10649,33 +10649,33 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
         <v>250</v>
       </c>
       <c r="K143" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="L143" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="M143" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44469</v>
+        <v>44294</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10721,33 +10721,33 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
         <v>250</v>
       </c>
       <c r="K144" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L144" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M144" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44469</v>
+        <v>44294</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10793,33 +10793,33 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="K145" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="L145" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="M145" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44488</v>
+        <v>44294</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,33 +10865,33 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L146" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M146" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44168</v>
+        <v>44196</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K147" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="L147" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M147" t="n">
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4000</v>
+        <v>3350</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44168</v>
+        <v>44196</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K148" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L148" t="n">
         <v>3000</v>
       </c>
       <c r="M148" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44168</v>
+        <v>44196</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L149" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M149" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44292</v>
+        <v>44208</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K150" t="n">
         <v>3000</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44292</v>
+        <v>44208</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44292</v>
+        <v>44208</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="K152" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L152" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M152" t="n">
-        <v>2500</v>
+        <v>1889</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>2500</v>
+        <v>1889</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44161</v>
+        <v>44208</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K153" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L153" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M153" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44214</v>
+        <v>44490</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11441,33 +11441,33 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K154" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L154" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M154" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44214</v>
+        <v>44466</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,29 +11517,29 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>800</v>
+        <v>97</v>
       </c>
       <c r="K155" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L155" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M155" t="n">
-        <v>2388</v>
+        <v>1000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2388</v>
+        <v>1000</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44214</v>
+        <v>44279</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
         <v>250</v>
       </c>
       <c r="K156" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L156" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M156" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K157" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L157" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M157" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K158" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L158" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M158" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K159" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L159" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M159" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K160" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L160" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M160" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K161" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L161" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M161" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K162" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L162" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="M162" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K163" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L163" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M163" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K164" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L164" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M164" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44274</v>
+        <v>44476</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12233,33 +12233,33 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="L165" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="M165" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44165</v>
+        <v>44201</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12305,33 +12305,33 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K166" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="L166" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="M166" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44258</v>
+        <v>44201</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K167" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L167" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M167" t="n">
-        <v>2800</v>
+        <v>2931</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>2800</v>
+        <v>2931</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44258</v>
+        <v>44201</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L168" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M168" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44474</v>
+        <v>44201</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12521,33 +12521,33 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K169" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="L169" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="M169" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>340</v>
+        <v>600</v>
       </c>
       <c r="K170" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L170" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M170" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="K171" t="n">
         <v>2500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44252</v>
+        <v>44204</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>160</v>
+        <v>1300</v>
       </c>
       <c r="K172" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L172" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M172" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="K173" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L173" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M173" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44204</v>
+        <v>44166</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="K174" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="L174" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M174" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44204</v>
+        <v>44292</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>1300</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L175" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M175" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44204</v>
+        <v>44292</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K176" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L176" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M176" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44243</v>
+        <v>44292</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K177" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L177" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M177" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44243</v>
+        <v>44469</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K178" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L178" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M178" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44243</v>
+        <v>44469</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13241,33 +13241,33 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="K179" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L179" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="M179" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44452</v>
+        <v>44246</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,33 +13313,33 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L180" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M180" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44202</v>
+        <v>44246</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="K181" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L181" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M181" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44202</v>
+        <v>44246</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K182" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L182" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M182" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44202</v>
+        <v>44246</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="K183" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L183" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M183" t="n">
-        <v>1920</v>
+        <v>3000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1920</v>
+        <v>3000</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44202</v>
+        <v>44168</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K184" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L184" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M184" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44159</v>
+        <v>44168</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K185" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L185" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="M185" t="n">
-        <v>845</v>
+        <v>3000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>845</v>
+        <v>3000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44166</v>
+        <v>44168</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,24 +13745,24 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L186" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M186" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44476</v>
+        <v>44175</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K187" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L187" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="M187" t="n">
-        <v>900</v>
+        <v>3750</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>900</v>
+        <v>3750</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44491</v>
+        <v>44175</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,33 +13889,33 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L188" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="M188" t="n">
-        <v>850</v>
+        <v>3000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>850</v>
+        <v>3000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44172</v>
+        <v>44286</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="L189" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M189" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44172</v>
+        <v>44286</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L190" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M190" t="n">
-        <v>3250</v>
+        <v>2700</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3250</v>
+        <v>2700</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K191" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L191" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M191" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="K192" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L192" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M192" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L193" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M193" t="n">
-        <v>2367</v>
+        <v>2000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2367</v>
+        <v>2000</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="K194" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L194" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M194" t="n">
-        <v>2325</v>
+        <v>2000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2325</v>
+        <v>2000</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44223</v>
+        <v>44473</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,33 +14393,33 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L195" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="M195" t="n">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44223</v>
+        <v>44484</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,33 +14465,33 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K196" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L196" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M196" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44187</v>
+        <v>44181</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L197" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M197" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44187</v>
+        <v>44181</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="K198" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L198" t="n">
         <v>3000</v>
       </c>
       <c r="M198" t="n">
-        <v>2925</v>
+        <v>3000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2925</v>
+        <v>3000</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44187</v>
+        <v>44181</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K199" t="n">
         <v>2000</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44466</v>
+        <v>44217</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,33 +14753,33 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>97</v>
+        <v>500</v>
       </c>
       <c r="K200" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L200" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M200" t="n">
-        <v>1000</v>
+        <v>2820</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1000</v>
+        <v>2820</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44250</v>
+        <v>44217</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>250</v>
+        <v>1300</v>
       </c>
       <c r="K201" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L201" t="n">
         <v>2500</v>
       </c>
-      <c r="L201" t="n">
-        <v>2800</v>
-      </c>
       <c r="M201" t="n">
-        <v>2650</v>
+        <v>2338</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2650</v>
+        <v>2338</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44250</v>
+        <v>44217</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="K202" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L202" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M202" t="n">
-        <v>2200</v>
+        <v>1612</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2200</v>
+        <v>1612</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44250</v>
+        <v>44244</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J203" t="n">
         <v>340</v>
       </c>
       <c r="K203" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L203" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M203" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="K204" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="L204" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M204" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K205" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L205" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M205" t="n">
-        <v>2931</v>
+        <v>2000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2931</v>
+        <v>2000</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44201</v>
+        <v>44244</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K206" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L206" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M206" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44201</v>
+        <v>44273</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K207" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L207" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M207" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15336,13 +15336,13 @@
         <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L208" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M208" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K209" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L209" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M209" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15480,13 +15480,13 @@
         <v>340</v>
       </c>
       <c r="K210" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L210" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M210" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>2400</v>
+        <v>210</v>
       </c>
       <c r="L211" t="n">
-        <v>2400</v>
+        <v>210</v>
       </c>
       <c r="M211" t="n">
-        <v>2400</v>
+        <v>210</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2400</v>
+        <v>210</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44286</v>
+        <v>44273</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K212" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L212" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M212" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44286</v>
+        <v>44491</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,33 +15689,33 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
         <v>250</v>
       </c>
       <c r="K213" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L213" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="M213" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R213"/>
+  <dimension ref="A1:R214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13313,33 +13313,33 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K180" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="L180" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M180" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L181" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M181" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K182" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L182" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M182" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L183" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M183" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K184" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L184" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M184" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K185" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L185" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M185" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K187" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L187" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M187" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K188" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L188" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M188" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K189" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14040,13 +14040,13 @@
         <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L191" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M191" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K192" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L192" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M192" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K193" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L193" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M193" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14325,7 +14325,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
         <v>2000</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14393,33 +14393,33 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K195" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L195" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M195" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L196" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M196" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,33 +14537,33 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
         <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L197" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M197" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K198" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L198" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M198" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K199" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L199" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M199" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J200" t="n">
         <v>500</v>
       </c>
       <c r="K200" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L200" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M200" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K201" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L201" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M201" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K202" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L202" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M202" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K203" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="L203" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M203" t="n">
-        <v>2700</v>
+        <v>1612</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2700</v>
+        <v>1612</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K204" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L204" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M204" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K206" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L206" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M206" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K207" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L207" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M207" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15333,7 +15333,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K208" t="n">
         <v>2800</v>
@@ -15351,7 +15351,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P208" t="n">
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K209" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L209" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M209" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15495,7 +15495,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K211" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L211" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M211" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L212" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M212" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15689,38 +15689,110 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
         <v>250</v>
       </c>
       <c r="K213" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2100</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>1</v>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>9</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E214" t="n">
+        <v>13</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>250</v>
+      </c>
+      <c r="K214" t="n">
         <v>800</v>
       </c>
-      <c r="L213" t="n">
+      <c r="L214" t="n">
         <v>900</v>
       </c>
-      <c r="M213" t="n">
+      <c r="M214" t="n">
         <v>850</v>
       </c>
-      <c r="N213" t="inlineStr">
+      <c r="N214" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O213" t="inlineStr">
+      <c r="O214" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P213" t="n">
+      <c r="P214" t="n">
         <v>850</v>
       </c>
-      <c r="Q213" t="n">
-        <v>1</v>
-      </c>
-      <c r="R213" t="inlineStr">
+      <c r="Q214" t="n">
+        <v>1</v>
+      </c>
+      <c r="R214" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R214"/>
+  <dimension ref="A1:R215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,33 +13673,33 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K185" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L185" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M185" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L186" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M186" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K187" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L187" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M187" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L188" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M188" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K190" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14112,13 +14112,13 @@
         <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L191" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M191" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K192" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L192" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M192" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K193" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L193" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M193" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
         <v>2000</v>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P195" t="n">
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14465,33 +14465,33 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K196" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L196" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M196" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L197" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M197" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,33 +14609,33 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J198" t="n">
         <v>250</v>
       </c>
       <c r="K198" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L198" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M198" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K200" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L200" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M200" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>500</v>
       </c>
       <c r="K201" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L201" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M201" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K202" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L202" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M202" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K203" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L203" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M203" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K204" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="L204" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M204" t="n">
-        <v>2700</v>
+        <v>1612</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2700</v>
+        <v>1612</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K205" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L205" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M205" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K207" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L207" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M207" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K208" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L208" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M208" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K209" t="n">
         <v>2800</v>
@@ -15423,7 +15423,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K210" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L210" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M210" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K212" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L212" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M212" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K213" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L213" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M213" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,38 +15761,110 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
         <v>250</v>
       </c>
       <c r="K214" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2100</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>1</v>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>9</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E215" t="n">
+        <v>13</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>250</v>
+      </c>
+      <c r="K215" t="n">
         <v>800</v>
       </c>
-      <c r="L214" t="n">
+      <c r="L215" t="n">
         <v>900</v>
       </c>
-      <c r="M214" t="n">
+      <c r="M215" t="n">
         <v>850</v>
       </c>
-      <c r="N214" t="inlineStr">
+      <c r="N215" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O214" t="inlineStr">
+      <c r="O215" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P214" t="n">
+      <c r="P215" t="n">
         <v>850</v>
       </c>
-      <c r="Q214" t="n">
-        <v>1</v>
-      </c>
-      <c r="R214" t="inlineStr">
+      <c r="Q215" t="n">
+        <v>1</v>
+      </c>
+      <c r="R215" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R215"/>
+  <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44469</v>
+        <v>44508</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13179,10 +13179,10 @@
         <v>800</v>
       </c>
       <c r="L178" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M178" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44469</v>
+        <v>44508</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K179" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L179" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K180" t="n">
         <v>800</v>
@@ -13335,7 +13335,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44246</v>
+        <v>44469</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13385,33 +13385,33 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K181" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="L181" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="M181" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K182" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="L182" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M182" t="n">
-        <v>2250</v>
+        <v>900</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2250</v>
+        <v>900</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J183" t="n">
         <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L183" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M183" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="K184" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L184" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M184" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13673,33 +13673,33 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="L185" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M185" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K186" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L186" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M186" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L187" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M187" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K188" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L188" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M188" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="K189" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L189" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M189" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14040,13 +14040,13 @@
         <v>250</v>
       </c>
       <c r="K190" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L190" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M190" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K191" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L191" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M191" t="n">
-        <v>2600</v>
+        <v>3750</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2600</v>
+        <v>3750</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K193" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L193" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M193" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K195" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L195" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M195" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K196" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L196" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M196" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14537,33 +14537,33 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
         <v>160</v>
       </c>
       <c r="K197" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L197" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M197" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44484</v>
+        <v>44286</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14609,33 +14609,33 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
         <v>250</v>
       </c>
       <c r="K198" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="L198" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M198" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,33 +14681,33 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K199" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L199" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M199" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>4000</v>
+        <v>1100</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K200" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L200" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M200" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K201" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L201" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M201" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K202" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L202" t="n">
         <v>3000</v>
       </c>
       <c r="M202" t="n">
-        <v>2820</v>
+        <v>3000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>2820</v>
+        <v>3000</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K203" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L203" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M203" t="n">
-        <v>2338</v>
+        <v>2000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2338</v>
+        <v>2000</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K204" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="L204" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M204" t="n">
-        <v>1612</v>
+        <v>2820</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1612</v>
+        <v>2820</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>340</v>
+        <v>1300</v>
       </c>
       <c r="K205" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L205" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M205" t="n">
-        <v>2700</v>
+        <v>2338</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2700</v>
+        <v>2338</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="K206" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L206" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M206" t="n">
-        <v>2400</v>
+        <v>1612</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2400</v>
+        <v>1612</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K207" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L207" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M207" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K208" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L208" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M208" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J209" t="n">
         <v>250</v>
       </c>
       <c r="K209" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L209" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M209" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J210" t="n">
         <v>160</v>
       </c>
       <c r="K210" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L210" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M210" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K211" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L211" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M211" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L212" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M212" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K213" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L213" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M213" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K214" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L214" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M214" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,58 +15813,202 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E215" t="n">
+        <v>13</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>160</v>
+      </c>
+      <c r="K215" t="n">
+        <v>210</v>
+      </c>
+      <c r="L215" t="n">
+        <v>210</v>
+      </c>
+      <c r="M215" t="n">
+        <v>210</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>1</v>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>9</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="E216" t="n">
+        <v>13</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>250</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2100</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>1</v>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>9</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E215" t="n">
-        <v>13</v>
-      </c>
-      <c r="F215" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
+      <c r="E217" t="n">
+        <v>13</v>
+      </c>
+      <c r="F217" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J215" t="n">
+      <c r="J217" t="n">
         <v>250</v>
       </c>
-      <c r="K215" t="n">
+      <c r="K217" t="n">
         <v>800</v>
       </c>
-      <c r="L215" t="n">
+      <c r="L217" t="n">
         <v>900</v>
       </c>
-      <c r="M215" t="n">
+      <c r="M217" t="n">
         <v>850</v>
       </c>
-      <c r="N215" t="inlineStr">
+      <c r="N217" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O215" t="inlineStr">
+      <c r="O217" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P215" t="n">
+      <c r="P217" t="n">
         <v>850</v>
       </c>
-      <c r="Q215" t="n">
-        <v>1</v>
-      </c>
-      <c r="R215" t="inlineStr">
+      <c r="Q217" t="n">
+        <v>1</v>
+      </c>
+      <c r="R217" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R217"/>
+  <dimension ref="A1:R218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44469</v>
+        <v>44511</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K180" t="n">
+        <v>700</v>
+      </c>
+      <c r="L180" t="n">
         <v>800</v>
       </c>
-      <c r="L180" t="n">
-        <v>1000</v>
-      </c>
       <c r="M180" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L181" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M181" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44504</v>
+        <v>44469</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="K182" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L182" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M182" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13529,33 +13529,33 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K183" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="L183" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M183" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="K184" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L184" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M184" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="K185" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L185" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M185" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K186" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L186" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M186" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13817,33 +13817,33 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K187" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L187" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M187" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44168</v>
+        <v>44505</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13889,33 +13889,33 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K188" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L188" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M188" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Cachapoal</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K190" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L190" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M190" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K191" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L191" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M191" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Cachapoal</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3750</v>
+        <v>2000</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K192" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L192" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M192" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44286</v>
+        <v>44175</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K193" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L193" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M193" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14328,13 +14328,13 @@
         <v>160</v>
       </c>
       <c r="K194" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L194" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M194" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L195" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M195" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K196" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L196" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M196" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K197" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L197" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M197" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K198" t="n">
         <v>2000</v>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14681,33 +14681,33 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K199" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L199" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M199" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L200" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M200" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14825,33 +14825,33 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>250</v>
       </c>
       <c r="K201" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="L201" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M201" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K202" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L202" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M202" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K203" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L203" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M203" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J204" t="n">
         <v>500</v>
       </c>
       <c r="K204" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L204" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M204" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K205" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L205" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M205" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2338</v>
+        <v>2820</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="K206" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L206" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M206" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1612</v>
+        <v>2338</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="K207" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="L207" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M207" t="n">
-        <v>2700</v>
+        <v>1612</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2700</v>
+        <v>1612</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K208" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L208" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M208" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
       <c r="K209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K210" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L210" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M210" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L211" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M211" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K212" t="n">
         <v>2800</v>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K213" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L213" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M213" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K215" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="L215" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="M215" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>210</v>
+        <v>2500</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="L216" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="M216" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44491</v>
+        <v>44273</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15977,38 +15977,110 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J217" t="n">
         <v>250</v>
       </c>
       <c r="K217" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2100</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2100</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>1</v>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>9</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E218" t="n">
+        <v>13</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>250</v>
+      </c>
+      <c r="K218" t="n">
         <v>800</v>
       </c>
-      <c r="L217" t="n">
+      <c r="L218" t="n">
         <v>900</v>
       </c>
-      <c r="M217" t="n">
+      <c r="M218" t="n">
         <v>850</v>
       </c>
-      <c r="N217" t="inlineStr">
+      <c r="N218" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O217" t="inlineStr">
+      <c r="O218" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P217" t="n">
+      <c r="P218" t="n">
         <v>850</v>
       </c>
-      <c r="Q217" t="n">
-        <v>1</v>
-      </c>
-      <c r="R217" t="inlineStr">
+      <c r="Q218" t="n">
+        <v>1</v>
+      </c>
+      <c r="R218" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R218"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44497</v>
+        <v>44515</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="K13" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M13" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>967</v>
+        <v>750</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>190</v>
+        <v>450</v>
       </c>
       <c r="K14" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L14" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44239</v>
+        <v>44497</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,33 +1433,33 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K15" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="L15" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="M15" t="n">
-        <v>2650</v>
+        <v>700</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2650</v>
+        <v>700</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="K16" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L16" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M16" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2300</v>
+        <v>2650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K17" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L17" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M17" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3250</v>
+        <v>2300</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44285</v>
+        <v>44239</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>160</v>
       </c>
       <c r="K18" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L18" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M18" t="n">
-        <v>2700</v>
+        <v>3250</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2700</v>
+        <v>3250</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K19" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L19" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M19" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K20" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L20" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M20" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K21" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L21" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44243</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="K22" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="L22" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M22" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="K23" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L23" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M23" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2081,20 +2081,20 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="K24" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L24" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M24" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44265</v>
+        <v>44243</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J25" t="n">
         <v>160</v>
       </c>
       <c r="K25" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L25" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M25" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K26" t="n">
         <v>2800</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2297,20 +2297,20 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L27" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M27" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L28" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M28" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2391,11 +2391,11 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44187</v>
+        <v>44265</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -2441,20 +2441,20 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K29" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L29" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M29" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2513,20 +2513,20 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="K30" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L30" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M30" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>2925</v>
+        <v>3500</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2585,20 +2585,20 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="K31" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L31" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M31" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2000</v>
+        <v>2925</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44267</v>
+        <v>44187</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2657,20 +2657,20 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K33" t="n">
         <v>2800</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2801,20 +2801,20 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K34" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L34" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M34" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -2945,20 +2945,20 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K36" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L36" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M36" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44264</v>
+        <v>44267</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J38" t="n">
         <v>160</v>
       </c>
       <c r="K38" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L38" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M38" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3111,11 +3111,11 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K39" t="n">
         <v>2800</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3233,20 +3233,20 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>250</v>
       </c>
       <c r="K40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K41" t="n">
         <v>2500</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3377,20 +3377,20 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K42" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L42" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M42" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44174</v>
+        <v>44264</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3449,20 +3449,20 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K43" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L43" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M43" t="n">
-        <v>3750</v>
+        <v>2200</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3750</v>
+        <v>2200</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>340</v>
+        <v>520</v>
       </c>
       <c r="K44" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L44" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M44" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2750</v>
+        <v>3750</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44463</v>
+        <v>44174</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3593,33 +3593,33 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K45" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L45" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M45" t="n">
-        <v>1200</v>
+        <v>2750</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1200</v>
+        <v>2750</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K46" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L46" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M46" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44271</v>
+        <v>44463</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3737,33 +3737,33 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K47" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L47" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M47" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K48" t="n">
         <v>2800</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3881,20 +3881,20 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
         <v>340</v>
       </c>
       <c r="K49" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L49" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M49" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3903,11 +3903,11 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="K50" t="n">
         <v>2500</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="K51" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L51" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M51" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4047,11 +4047,11 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K52" t="n">
         <v>2100</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4169,20 +4169,20 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K53" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="L53" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M53" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44258</v>
+        <v>44271</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4313,20 +4313,20 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K55" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L55" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M55" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K56" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L56" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M56" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44200</v>
+        <v>44258</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4457,20 +4457,20 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="K57" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L57" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M57" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4529,20 +4529,20 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="K58" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="L58" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M58" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3650</v>
+        <v>4000</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4601,20 +4601,20 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="K59" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L59" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M59" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3200</v>
+        <v>3650</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44452</v>
+        <v>44200</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4673,33 +4673,33 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K60" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="L60" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="M60" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44299</v>
+        <v>44452</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4749,29 +4749,29 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K61" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L61" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M61" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44249</v>
+        <v>44299</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4817,20 +4817,20 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
         <v>250</v>
       </c>
       <c r="K62" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L62" t="n">
         <v>3000</v>
       </c>
       <c r="M62" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44257</v>
+        <v>44249</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4889,20 +4889,20 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K63" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L63" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M63" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4961,20 +4961,20 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K64" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L64" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M64" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5033,20 +5033,20 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="K65" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L65" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M65" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5105,20 +5105,20 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>340</v>
+        <v>70</v>
       </c>
       <c r="K66" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L66" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M66" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5177,20 +5177,20 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K67" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L67" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M67" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="K68" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L68" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M68" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44252</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5321,11 +5321,11 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="K69" t="n">
         <v>3000</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44223</v>
+        <v>44237</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="K70" t="n">
         <v>3000</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K71" t="n">
         <v>3000</v>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5537,20 +5537,20 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K72" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L72" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M72" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2367</v>
+        <v>3000</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="K73" t="n">
         <v>2200</v>
@@ -5622,7 +5622,7 @@
         <v>2500</v>
       </c>
       <c r="M73" t="n">
-     